--- a/jetson.xlsx
+++ b/jetson.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asdfg\Documents\Projects\cs3210-assignment-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:140008_{61FB38D6-136E-405A-A4A1-EB4EC59713B9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3B139932-FBD9-4D2A-98BC-3858750B0CA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time vs total_threads" sheetId="3" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="time vs write misses" sheetId="7" r:id="rId3"/>
     <sheet name="time vs read misses" sheetId="8" r:id="rId4"/>
     <sheet name="combined" sheetId="2" r:id="rId5"/>
-    <sheet name="saturated" sheetId="4" r:id="rId6"/>
-    <sheet name="bak" sheetId="1" r:id="rId7"/>
+    <sheet name="time vs total threads saturated" sheetId="9" r:id="rId6"/>
+    <sheet name="saturated" sheetId="4" r:id="rId7"/>
+    <sheet name="bak" sheetId="1" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">saturated!$A$1:$AR$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">saturated!$A$1:$AR$33</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -169,7 +170,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -2456,10 +2457,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>saturated!$D$2:$D$79</c:f>
+              <c:f>saturated!$D$2:$D$73</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>38.91178</c:v>
                 </c:pt>
@@ -2470,75 +2471,57 @@
                   <c:v>19.475549999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.88767</c:v>
+                  <c:v>16.109369999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.549329999999998</c:v>
+                  <c:v>17.918299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.493769999999998</c:v>
+                  <c:v>21.147219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.109369999999998</c:v>
+                  <c:v>22.492349999999899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.918299999999999</c:v>
+                  <c:v>8.5782899999999902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.147219</c:v>
+                  <c:v>13.212389999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.492349999999899</c:v>
+                  <c:v>11.74601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.65517</c:v>
+                  <c:v>5.5093350000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44.990780000000001</c:v>
+                  <c:v>8.8179300000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5782899999999902</c:v>
+                  <c:v>11.3933699999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.212389999999999</c:v>
+                  <c:v>10.60472</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.74601</c:v>
+                  <c:v>7.1437099999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5093350000000001</c:v>
+                  <c:v>10.12942</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.1571599999999993</c:v>
+                  <c:v>15.189509999999901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8179300000000005</c:v>
+                  <c:v>8.2026599999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.3933699999999</c:v>
+                  <c:v>13.544059999999901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.60472</c:v>
+                  <c:v>12.338469999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.1437099999999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10.12942</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15.189509999999901</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.2026599999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13.544059999999901</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12.338469999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>9.1497200000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -2546,10 +2529,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>saturated!$AH$2:$AH$79</c:f>
+              <c:f>saturated!$AH$2:$AH$73</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>47.4</c:v>
                 </c:pt>
@@ -2560,75 +2543,57 @@
                   <c:v>55.699999999999903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>191.4</c:v>
+                  <c:v>91.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>359593.6</c:v>
+                  <c:v>81.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>362410.1</c:v>
+                  <c:v>82.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.3</c:v>
+                  <c:v>78.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.7</c:v>
+                  <c:v>350084.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.4</c:v>
+                  <c:v>444242.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.400000000000006</c:v>
+                  <c:v>535181.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>248147.20000000001</c:v>
+                  <c:v>244444.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>523118.6</c:v>
+                  <c:v>249689</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>350084.8</c:v>
+                  <c:v>440491.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>444242.9</c:v>
+                  <c:v>524689.80000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>535181.5</c:v>
+                  <c:v>299701.90000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>244444.9</c:v>
+                  <c:v>349608.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>348092.8</c:v>
+                  <c:v>543505.19999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>249689</c:v>
+                  <c:v>361591.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>440491.8</c:v>
+                  <c:v>498916.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>524689.80000000005</c:v>
+                  <c:v>494065.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>299701.90000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>349608.3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>543505.19999999995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>361591.3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>498916.2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>494065.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>401999.6</c:v>
                 </c:pt>
               </c:numCache>
@@ -3052,10 +3017,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>saturated!$D$2:$D$79</c:f>
+              <c:f>saturated!$D$2:$D$73</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>38.91178</c:v>
                 </c:pt>
@@ -3066,75 +3031,57 @@
                   <c:v>19.475549999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.88767</c:v>
+                  <c:v>16.109369999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.549329999999998</c:v>
+                  <c:v>17.918299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.493769999999998</c:v>
+                  <c:v>21.147219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.109369999999998</c:v>
+                  <c:v>22.492349999999899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.918299999999999</c:v>
+                  <c:v>8.5782899999999902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.147219</c:v>
+                  <c:v>13.212389999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.492349999999899</c:v>
+                  <c:v>11.74601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.65517</c:v>
+                  <c:v>5.5093350000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44.990780000000001</c:v>
+                  <c:v>8.8179300000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5782899999999902</c:v>
+                  <c:v>11.3933699999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.212389999999999</c:v>
+                  <c:v>10.60472</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.74601</c:v>
+                  <c:v>7.1437099999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5093350000000001</c:v>
+                  <c:v>10.12942</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.1571599999999993</c:v>
+                  <c:v>15.189509999999901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8179300000000005</c:v>
+                  <c:v>8.2026599999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.3933699999999</c:v>
+                  <c:v>13.544059999999901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.60472</c:v>
+                  <c:v>12.338469999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.1437099999999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10.12942</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15.189509999999901</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.2026599999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13.544059999999901</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12.338469999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>9.1497200000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -3142,10 +3089,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>saturated!$AI$2:$AI$79</c:f>
+              <c:f>saturated!$AI$2:$AI$73</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>18576.599999999999</c:v>
                 </c:pt>
@@ -3156,75 +3103,57 @@
                   <c:v>27556.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25854.6</c:v>
+                  <c:v>15360.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40304.699999999997</c:v>
+                  <c:v>16921.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81770.299999999901</c:v>
+                  <c:v>11757.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15360.8</c:v>
+                  <c:v>13786</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16921.7</c:v>
+                  <c:v>14707.199999999901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11757.4</c:v>
+                  <c:v>18128.099999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13786</c:v>
+                  <c:v>22634.699999999899</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15008.5999999999</c:v>
+                  <c:v>11153.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54311.5</c:v>
+                  <c:v>11393.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14707.199999999901</c:v>
+                  <c:v>18597</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18128.099999999999</c:v>
+                  <c:v>21259</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22634.699999999899</c:v>
+                  <c:v>13504.699999999901</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11153.2</c:v>
+                  <c:v>15423.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21201.5</c:v>
+                  <c:v>23426.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11393.9</c:v>
+                  <c:v>15683.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18597</c:v>
+                  <c:v>21639.9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21259</c:v>
+                  <c:v>20447.099999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13504.699999999901</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15423.3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23426.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15683.8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21639.9</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20447.099999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>17388.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -3529,6 +3458,565 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> threads vs Time (256 or more total threads)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>saturated!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total_time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>saturated!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>saturated!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>38.91178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.896019999999901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.475549999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.109369999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.918299999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.147219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.492349999999899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5782899999999902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.212389999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.74601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5093350000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8179300000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.3933699999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.60472</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.1437099999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.12942</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.189509999999901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.2026599999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.544059999999901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.338469999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.1497200000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08F8-41D6-B387-D497F766B1BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="618481967"/>
+        <c:axId val="626252415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="618481967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Total threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626252415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="626252415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="618481967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3650,6 +4138,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5753,8 +6281,524 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="177" workbookViewId="0" zoomToFit="1"/>
@@ -5765,7 +6809,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="177" workbookViewId="0" zoomToFit="1"/>
@@ -5776,7 +6820,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="177" workbookViewId="0" zoomToFit="1"/>
@@ -5787,7 +6831,18 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="177" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{97F4859A-A63D-4ACE-8A5D-5C2DFB178C22}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="177" workbookViewId="0" zoomToFit="1"/>
@@ -5867,7 +6922,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304364" cy="6080932"/>
+    <xdr:ext cx="9298983" cy="6075551"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5900,13 +6955,46 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9298983" cy="6075551"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121C5710-6D13-49A7-82C8-3E9FA48FD8A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
     <xdr:ext cx="9304364" cy="6080932"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121C5710-6D13-49A7-82C8-3E9FA48FD8A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B897F8-B12D-42EF-8344-3FB305C79602}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6225,11 +7313,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AS65"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15104,6 +16192,12 @@
         <v>209260</v>
       </c>
     </row>
+    <row r="65" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N65" s="2">
+        <f>AVERAGE(N2:N64)</f>
+        <v>49.983531683043559</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:AS65">
     <sortCondition ref="A2:A65"/>
@@ -15114,11 +16208,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AR22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" activeCellId="1" sqref="AI1:AI1048576 D1:D1048576"/>
+      <selection activeCell="AG39" sqref="AG39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15699,421 +16793,421 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="C5">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="D5" s="2">
-        <v>33.88767</v>
+        <v>16.109369999999998</v>
       </c>
       <c r="E5" s="3">
-        <v>358894.66</v>
+        <v>320700.09999999998</v>
       </c>
       <c r="F5">
+        <v>75</v>
+      </c>
+      <c r="G5" s="2">
         <v>50</v>
       </c>
-      <c r="G5" s="2">
-        <v>50.006</v>
-      </c>
       <c r="H5" s="2">
-        <v>49.537999999999997</v>
+        <v>50.067999999999998</v>
       </c>
       <c r="I5">
-        <v>12.432</v>
+        <v>12.497999999999999</v>
       </c>
       <c r="J5">
         <v>3.79</v>
       </c>
       <c r="K5" s="2">
-        <v>8.5030000000000001</v>
+        <v>7.0430000000000001</v>
       </c>
       <c r="L5" s="2">
-        <v>29.081</v>
+        <v>28.937000000000001</v>
       </c>
       <c r="M5" s="2">
-        <v>49.685000000000002</v>
+        <v>49.253</v>
       </c>
       <c r="N5" s="1">
-        <v>0.98440459999999996</v>
+        <v>0.90623100000000001</v>
       </c>
       <c r="O5" s="2">
-        <v>97.919999999999902</v>
+        <v>99.534999999999997</v>
       </c>
       <c r="P5">
-        <v>140.4</v>
+        <v>62</v>
       </c>
       <c r="Q5">
-        <v>51</v>
+        <v>29.3</v>
       </c>
       <c r="R5">
-        <v>21681.7</v>
+        <v>13046.7</v>
       </c>
       <c r="S5">
-        <v>4172.8999999999996</v>
+        <v>2314.1</v>
       </c>
       <c r="T5">
-        <v>517758.2</v>
+        <v>529056.4</v>
       </c>
       <c r="U5">
-        <v>512056.1</v>
+        <v>521615.2</v>
       </c>
       <c r="V5">
-        <v>899207.6</v>
+        <v>925012.6</v>
       </c>
       <c r="W5">
-        <v>845192.6</v>
+        <v>869387.6</v>
       </c>
       <c r="X5">
-        <v>517661.8</v>
+        <v>531584.4</v>
       </c>
       <c r="Y5">
-        <v>508093.4</v>
+        <v>522154</v>
       </c>
       <c r="Z5">
-        <v>897039.6</v>
+        <v>918393.8</v>
       </c>
       <c r="AA5">
-        <v>8288.2000000000007</v>
+        <v>15578.8</v>
       </c>
       <c r="AB5">
-        <v>536607.4</v>
+        <v>542738.80000000005</v>
       </c>
       <c r="AC5">
-        <v>512322.1</v>
+        <v>523673</v>
       </c>
       <c r="AD5">
-        <v>899550.6</v>
+        <v>928017.2</v>
       </c>
       <c r="AE5">
-        <v>845512.4</v>
+        <v>872289</v>
       </c>
       <c r="AF5" s="3">
-        <v>1048929.5</v>
+        <v>1066411.8</v>
       </c>
       <c r="AG5" s="3">
-        <v>1745063</v>
+        <v>1800306.2</v>
       </c>
       <c r="AH5" s="3">
-        <v>191.4</v>
+        <v>91.3</v>
       </c>
       <c r="AI5" s="3">
-        <v>25854.6</v>
+        <v>15360.8</v>
       </c>
       <c r="AJ5" s="3">
-        <v>1025755.2</v>
+        <v>1053738.3999999999</v>
       </c>
       <c r="AK5" s="3">
-        <v>905327.799999999</v>
+        <v>933972.6</v>
       </c>
       <c r="AL5" s="3">
-        <v>10693834.800000001</v>
+        <v>5984159.2000000002</v>
       </c>
       <c r="AM5" s="3">
-        <v>200465.2</v>
+        <v>102887.2</v>
       </c>
       <c r="AN5" s="3">
-        <v>123363.2</v>
+        <v>63315.199999999997</v>
       </c>
       <c r="AO5" s="3">
-        <v>3871.1</v>
+        <v>1994.6</v>
       </c>
       <c r="AP5" s="3">
         <v>33</v>
       </c>
       <c r="AQ5" s="3">
-        <v>246873.60000000001</v>
+        <v>126188.8</v>
       </c>
       <c r="AR5" s="3">
-        <v>378568.2</v>
+        <v>193769.60000000001</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C6">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="D6" s="2">
-        <v>55.549329999999998</v>
+        <v>17.918299999999999</v>
       </c>
       <c r="E6" s="3">
-        <v>675908</v>
+        <v>356842.9</v>
       </c>
       <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6" s="2">
         <v>50</v>
       </c>
-      <c r="G6" s="2">
-        <v>50.001999999999903</v>
-      </c>
       <c r="H6" s="2">
-        <v>49.966999999999999</v>
+        <v>50</v>
       </c>
       <c r="I6">
-        <v>12.363</v>
+        <v>12.446999999999999</v>
       </c>
       <c r="J6">
         <v>3.79</v>
       </c>
       <c r="K6" s="2">
-        <v>9.3469999999999995</v>
+        <v>6.968</v>
       </c>
       <c r="L6" s="2">
-        <v>25.265999999999998</v>
+        <v>29.539000000000001</v>
       </c>
       <c r="M6" s="2">
-        <v>48.987000000000002</v>
+        <v>49.350999999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>1.8342144999999901</v>
+        <v>0.92015369999999996</v>
       </c>
       <c r="O6" s="2">
-        <v>99.791999999999902</v>
+        <v>99.710999999999999</v>
       </c>
       <c r="P6">
-        <v>187150.9</v>
+        <v>62</v>
       </c>
       <c r="Q6">
-        <v>172442.7</v>
+        <v>19.7</v>
       </c>
       <c r="R6">
-        <v>30563.4</v>
+        <v>14451.3</v>
       </c>
       <c r="S6">
-        <v>9741.2999999999993</v>
+        <v>2470.4</v>
       </c>
       <c r="T6">
-        <v>463312.4</v>
+        <v>574682.19999999995</v>
       </c>
       <c r="U6">
-        <v>463576.8</v>
+        <v>566226.30000000005</v>
       </c>
       <c r="V6">
-        <v>794961.4</v>
+        <v>999775.8</v>
       </c>
       <c r="W6">
-        <v>770379</v>
+        <v>939716.4</v>
       </c>
       <c r="X6">
-        <v>463629.8</v>
+        <v>574306.19999999995</v>
       </c>
       <c r="Y6">
-        <v>460545.9</v>
+        <v>564286.19999999995</v>
       </c>
       <c r="Z6">
-        <v>801024.1</v>
+        <v>1005649.4</v>
       </c>
       <c r="AA6">
-        <v>487960.9</v>
+        <v>15725.2</v>
       </c>
       <c r="AB6">
-        <v>486107.5</v>
+        <v>591083</v>
       </c>
       <c r="AC6">
-        <v>467253.3</v>
+        <v>569190.40000000002</v>
       </c>
       <c r="AD6">
-        <v>796317</v>
+        <v>998892.8</v>
       </c>
       <c r="AE6">
-        <v>771584.6</v>
+        <v>938911.8</v>
       </c>
       <c r="AF6" s="3">
-        <v>953360.8</v>
+        <v>1160273.3999999999</v>
       </c>
       <c r="AG6" s="3">
-        <v>1567901.6</v>
+        <v>1937804.6</v>
       </c>
       <c r="AH6" s="3">
-        <v>359593.6</v>
+        <v>81.7</v>
       </c>
       <c r="AI6" s="3">
-        <v>40304.699999999997</v>
+        <v>16921.7</v>
       </c>
       <c r="AJ6" s="3">
-        <v>924175.7</v>
+        <v>1138592.3999999999</v>
       </c>
       <c r="AK6" s="3">
-        <v>1288985</v>
+        <v>1021374.6</v>
       </c>
       <c r="AL6" s="3">
-        <v>10012503</v>
+        <v>6423033.2000000002</v>
       </c>
       <c r="AM6" s="3">
-        <v>359985.6</v>
+        <v>111217.60000000001</v>
       </c>
       <c r="AN6" s="3">
-        <v>221529.60000000001</v>
+        <v>68441.600000000006</v>
       </c>
       <c r="AO6" s="3">
-        <v>6954.8</v>
+        <v>2154.8000000000002</v>
       </c>
       <c r="AP6" s="3">
         <v>33</v>
       </c>
       <c r="AQ6" s="3">
-        <v>442707.20000000001</v>
+        <v>137024</v>
       </c>
       <c r="AR6" s="3">
-        <v>679030.4</v>
+        <v>210361</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <v>64</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
       <c r="C7">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="D7" s="2">
-        <v>42.493769999999998</v>
+        <v>21.147219</v>
       </c>
       <c r="E7" s="3">
-        <v>338963.20000000001</v>
+        <v>277176.7</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G7" s="2">
-        <v>1.39999999999999E-2</v>
+        <v>50.000999999999998</v>
       </c>
       <c r="H7" s="2">
-        <v>0.55999999999999905</v>
+        <v>50.153999999999897</v>
       </c>
       <c r="I7">
-        <v>12.263999999999999</v>
+        <v>12.428000000000001</v>
       </c>
       <c r="J7">
         <v>3.79</v>
       </c>
       <c r="K7" s="2">
-        <v>9.4640000000000004</v>
+        <v>7.5249999999999897</v>
       </c>
       <c r="L7" s="2">
-        <v>24.96</v>
+        <v>29.383999999999901</v>
       </c>
       <c r="M7" s="2">
-        <v>49.286000000000001</v>
+        <v>48.828000000000003</v>
       </c>
       <c r="N7" s="1">
-        <v>1.8168542000000001</v>
+        <v>0.91360039999999998</v>
       </c>
       <c r="O7" s="2">
-        <v>99.837999999999994</v>
+        <v>99.260999999999996</v>
       </c>
       <c r="P7">
-        <v>188609.4</v>
+        <v>62.4</v>
       </c>
       <c r="Q7">
-        <v>173800.7</v>
+        <v>20</v>
       </c>
       <c r="R7">
-        <v>62404.2</v>
+        <v>9861.6</v>
       </c>
       <c r="S7">
-        <v>19366.099999999999</v>
+        <v>1895.8</v>
       </c>
       <c r="T7">
-        <v>470852.6</v>
+        <v>419365.6</v>
       </c>
       <c r="U7">
-        <v>471090</v>
+        <v>413309</v>
       </c>
       <c r="V7">
-        <v>803957.7</v>
+        <v>732384.2</v>
       </c>
       <c r="W7">
-        <v>779222.9</v>
+        <v>688392.8</v>
       </c>
       <c r="X7">
-        <v>458115</v>
+        <v>419788.4</v>
       </c>
       <c r="Y7">
-        <v>459190.3</v>
+        <v>412106</v>
       </c>
       <c r="Z7">
-        <v>803647.7</v>
+        <v>721301.8</v>
       </c>
       <c r="AA7">
-        <v>7717.6</v>
+        <v>14999.6</v>
       </c>
       <c r="AB7">
-        <v>485314.3</v>
+        <v>426622</v>
       </c>
       <c r="AC7">
-        <v>467379.4</v>
+        <v>412657.1</v>
       </c>
       <c r="AD7">
-        <v>808133.5</v>
+        <v>726706.8</v>
       </c>
       <c r="AE7">
-        <v>783167.9</v>
+        <v>683071.4</v>
       </c>
       <c r="AF7" s="3">
-        <v>952693.7</v>
+        <v>839279.1</v>
       </c>
       <c r="AG7" s="3">
-        <v>1591301.4</v>
+        <v>1409778.2</v>
       </c>
       <c r="AH7" s="3">
-        <v>362410.1</v>
+        <v>82.4</v>
       </c>
       <c r="AI7" s="3">
-        <v>81770.299999999901</v>
+        <v>11757.4</v>
       </c>
       <c r="AJ7" s="3">
-        <v>917305.3</v>
+        <v>831894.4</v>
       </c>
       <c r="AK7" s="3">
-        <v>811365.299999999</v>
+        <v>736301.4</v>
       </c>
       <c r="AL7" s="3">
-        <v>10471623.4</v>
+        <v>4734571.8</v>
       </c>
       <c r="AM7" s="3">
-        <v>364119.6</v>
+        <v>81333.2</v>
       </c>
       <c r="AN7" s="3">
-        <v>224073.60000000001</v>
+        <v>50051.199999999997</v>
       </c>
       <c r="AO7" s="3">
-        <v>7066.3</v>
+        <v>1580.1</v>
       </c>
       <c r="AP7" s="3">
         <v>33</v>
       </c>
       <c r="AQ7" s="3">
-        <v>449881.59999999998</v>
+        <v>100012.8</v>
       </c>
       <c r="AR7" s="3">
-        <v>691200.2</v>
+        <v>153687.6</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>512</v>
       </c>
       <c r="D8" s="2">
-        <v>16.109369999999998</v>
+        <v>22.492349999999899</v>
       </c>
       <c r="E8" s="3">
-        <v>320700.09999999998</v>
+        <v>302414</v>
       </c>
       <c r="F8">
         <v>75</v>
@@ -16122,115 +17216,115 @@
         <v>50</v>
       </c>
       <c r="H8" s="2">
-        <v>50.067999999999998</v>
+        <v>50.143999999999998</v>
       </c>
       <c r="I8">
-        <v>12.497999999999999</v>
+        <v>12.477</v>
       </c>
       <c r="J8">
         <v>3.79</v>
       </c>
       <c r="K8" s="2">
-        <v>7.0430000000000001</v>
+        <v>7.077</v>
       </c>
       <c r="L8" s="2">
-        <v>28.937000000000001</v>
+        <v>29.038999999999898</v>
       </c>
       <c r="M8" s="2">
-        <v>49.253</v>
+        <v>50.128999999999998</v>
       </c>
       <c r="N8" s="1">
-        <v>0.90623100000000001</v>
+        <v>0.92420159999999996</v>
       </c>
       <c r="O8" s="2">
-        <v>99.534999999999997</v>
+        <v>99.736000000000004</v>
       </c>
       <c r="P8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q8">
-        <v>29.3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="R8">
-        <v>13046.7</v>
+        <v>11673.1</v>
       </c>
       <c r="S8">
-        <v>2314.1</v>
+        <v>2112.9</v>
       </c>
       <c r="T8">
-        <v>529056.4</v>
+        <v>479647.4</v>
       </c>
       <c r="U8">
-        <v>521615.2</v>
+        <v>473005.5</v>
       </c>
       <c r="V8">
-        <v>925012.6</v>
+        <v>833849</v>
       </c>
       <c r="W8">
-        <v>869387.6</v>
+        <v>783728.8</v>
       </c>
       <c r="X8">
-        <v>531584.4</v>
+        <v>476217.4</v>
       </c>
       <c r="Y8">
-        <v>522154</v>
+        <v>467875.8</v>
       </c>
       <c r="Z8">
-        <v>918393.8</v>
+        <v>831045</v>
       </c>
       <c r="AA8">
-        <v>15578.8</v>
+        <v>15735.6</v>
       </c>
       <c r="AB8">
-        <v>542738.80000000005</v>
+        <v>490425.7</v>
       </c>
       <c r="AC8">
-        <v>523673</v>
+        <v>473552.1</v>
       </c>
       <c r="AD8">
-        <v>928017.2</v>
+        <v>833700.8</v>
       </c>
       <c r="AE8">
-        <v>872289</v>
+        <v>783545.4</v>
       </c>
       <c r="AF8" s="3">
-        <v>1066411.8</v>
+        <v>963977.8</v>
       </c>
       <c r="AG8" s="3">
-        <v>1800306.2</v>
+        <v>1617246.2</v>
       </c>
       <c r="AH8" s="3">
-        <v>91.3</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="AI8" s="3">
-        <v>15360.8</v>
+        <v>13786</v>
       </c>
       <c r="AJ8" s="3">
-        <v>1053738.3999999999</v>
+        <v>944093.2</v>
       </c>
       <c r="AK8" s="3">
-        <v>933972.6</v>
+        <v>846780.6</v>
       </c>
       <c r="AL8" s="3">
-        <v>5984159.2000000002</v>
+        <v>5482791</v>
       </c>
       <c r="AM8" s="3">
-        <v>102887.2</v>
+        <v>92539.199999999997</v>
       </c>
       <c r="AN8" s="3">
-        <v>63315.199999999997</v>
+        <v>56947.199999999997</v>
       </c>
       <c r="AO8" s="3">
-        <v>1994.6</v>
+        <v>1795.6</v>
       </c>
       <c r="AP8" s="3">
         <v>33</v>
       </c>
       <c r="AQ8" s="3">
-        <v>126188.8</v>
+        <v>114419.2</v>
       </c>
       <c r="AR8" s="3">
-        <v>193769.60000000001</v>
+        <v>175747.4</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -16238,16 +17332,16 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="C9">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="D9" s="2">
-        <v>17.918299999999999</v>
+        <v>8.5782899999999902</v>
       </c>
       <c r="E9" s="3">
-        <v>356842.9</v>
+        <v>143412.4</v>
       </c>
       <c r="F9">
         <v>75</v>
@@ -16256,115 +17350,115 @@
         <v>50</v>
       </c>
       <c r="H9" s="2">
-        <v>50</v>
+        <v>50.183</v>
       </c>
       <c r="I9">
-        <v>12.446999999999999</v>
+        <v>12.421999999999899</v>
       </c>
       <c r="J9">
         <v>3.79</v>
       </c>
       <c r="K9" s="2">
-        <v>6.968</v>
+        <v>7.5249999999999897</v>
       </c>
       <c r="L9" s="2">
-        <v>29.539000000000001</v>
+        <v>24.922999999999998</v>
       </c>
       <c r="M9" s="2">
-        <v>49.350999999999999</v>
+        <v>50.292999999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>0.92015369999999996</v>
+        <v>1.5632699000000001</v>
       </c>
       <c r="O9" s="2">
-        <v>99.710999999999999</v>
+        <v>99.482999999999905</v>
       </c>
       <c r="P9">
-        <v>62</v>
+        <v>183003.5</v>
       </c>
       <c r="Q9">
-        <v>19.7</v>
+        <v>167081.29999999999</v>
       </c>
       <c r="R9">
-        <v>14451.3</v>
+        <v>11376.8</v>
       </c>
       <c r="S9">
-        <v>2470.4</v>
+        <v>3330.4</v>
       </c>
       <c r="T9">
-        <v>574682.19999999995</v>
+        <v>455403.2</v>
       </c>
       <c r="U9">
-        <v>566226.30000000005</v>
+        <v>450361.7</v>
       </c>
       <c r="V9">
-        <v>999775.8</v>
+        <v>781073</v>
       </c>
       <c r="W9">
-        <v>939716.4</v>
+        <v>757060.8</v>
       </c>
       <c r="X9">
-        <v>574306.19999999995</v>
+        <v>448361.4</v>
       </c>
       <c r="Y9">
-        <v>564286.19999999995</v>
+        <v>444997</v>
       </c>
       <c r="Z9">
-        <v>1005649.4</v>
+        <v>780249.8</v>
       </c>
       <c r="AA9">
-        <v>15725.2</v>
+        <v>25480.799999999999</v>
       </c>
       <c r="AB9">
-        <v>591083</v>
+        <v>461989.2</v>
       </c>
       <c r="AC9">
-        <v>569190.40000000002</v>
+        <v>450890.8</v>
       </c>
       <c r="AD9">
-        <v>998892.8</v>
+        <v>782648.8</v>
       </c>
       <c r="AE9">
-        <v>938911.8</v>
+        <v>758498.3</v>
       </c>
       <c r="AF9" s="3">
-        <v>1160273.3999999999</v>
+        <v>912880</v>
       </c>
       <c r="AG9" s="3">
-        <v>1937804.6</v>
+        <v>1541147.1</v>
       </c>
       <c r="AH9" s="3">
-        <v>81.7</v>
+        <v>350084.8</v>
       </c>
       <c r="AI9" s="3">
-        <v>16921.7</v>
+        <v>14707.199999999901</v>
       </c>
       <c r="AJ9" s="3">
-        <v>1138592.3999999999</v>
+        <v>893358.4</v>
       </c>
       <c r="AK9" s="3">
-        <v>1021374.6</v>
+        <v>805730.6</v>
       </c>
       <c r="AL9" s="3">
-        <v>6423033.2000000002</v>
+        <v>2979414.8</v>
       </c>
       <c r="AM9" s="3">
-        <v>111217.60000000001</v>
+        <v>88394.8</v>
       </c>
       <c r="AN9" s="3">
-        <v>68441.600000000006</v>
+        <v>54396.800000000003</v>
       </c>
       <c r="AO9" s="3">
-        <v>2154.8000000000002</v>
+        <v>1731.9</v>
       </c>
       <c r="AP9" s="3">
         <v>33</v>
       </c>
       <c r="AQ9" s="3">
-        <v>137024</v>
+        <v>108787.2</v>
       </c>
       <c r="AR9" s="3">
-        <v>210361</v>
+        <v>167715.4</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
@@ -16372,16 +17466,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C10">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="D10" s="2">
-        <v>21.147219</v>
+        <v>13.212389999999999</v>
       </c>
       <c r="E10" s="3">
-        <v>277176.7</v>
+        <v>156940.4</v>
       </c>
       <c r="F10">
         <v>75</v>
@@ -16390,115 +17484,115 @@
         <v>50.000999999999998</v>
       </c>
       <c r="H10" s="2">
-        <v>50.153999999999897</v>
+        <v>49.773000000000003</v>
       </c>
       <c r="I10">
-        <v>12.428000000000001</v>
+        <v>12.201000000000001</v>
       </c>
       <c r="J10">
         <v>3.79</v>
       </c>
       <c r="K10" s="2">
-        <v>7.5249999999999897</v>
+        <v>7.69</v>
       </c>
       <c r="L10" s="2">
-        <v>29.383999999999901</v>
+        <v>24.395999999999901</v>
       </c>
       <c r="M10" s="2">
-        <v>48.828000000000003</v>
+        <v>50.839999999999897</v>
       </c>
       <c r="N10" s="1">
-        <v>0.91360039999999998</v>
+        <v>1.5545553000000001</v>
       </c>
       <c r="O10" s="2">
-        <v>99.260999999999996</v>
+        <v>99.614000000000004</v>
       </c>
       <c r="P10">
-        <v>62.4</v>
+        <v>231782.1</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>212460.79999999999</v>
       </c>
       <c r="R10">
-        <v>9861.6</v>
+        <v>14042.2</v>
       </c>
       <c r="S10">
-        <v>1895.8</v>
+        <v>4085.9</v>
       </c>
       <c r="T10">
-        <v>419365.6</v>
+        <v>576960.6</v>
       </c>
       <c r="U10">
-        <v>413309</v>
+        <v>570466.5</v>
       </c>
       <c r="V10">
-        <v>732384.2</v>
+        <v>991942.2</v>
       </c>
       <c r="W10">
-        <v>688392.8</v>
+        <v>961308.4</v>
       </c>
       <c r="X10">
-        <v>419788.4</v>
+        <v>571724.80000000005</v>
       </c>
       <c r="Y10">
-        <v>412106</v>
+        <v>567588.80000000005</v>
       </c>
       <c r="Z10">
-        <v>721301.8</v>
+        <v>994618.6</v>
       </c>
       <c r="AA10">
-        <v>14999.6</v>
+        <v>96518.399999999994</v>
       </c>
       <c r="AB10">
-        <v>426622</v>
+        <v>583420.5</v>
       </c>
       <c r="AC10">
-        <v>412657.1</v>
+        <v>569490.9</v>
       </c>
       <c r="AD10">
-        <v>726706.8</v>
+        <v>993191.6</v>
       </c>
       <c r="AE10">
-        <v>683071.4</v>
+        <v>962529.8</v>
       </c>
       <c r="AF10" s="3">
-        <v>839279.1</v>
+        <v>1152911.3999999999</v>
       </c>
       <c r="AG10" s="3">
-        <v>1409778.2</v>
+        <v>1955721.4</v>
       </c>
       <c r="AH10" s="3">
-        <v>82.4</v>
+        <v>444242.9</v>
       </c>
       <c r="AI10" s="3">
-        <v>11757.4</v>
+        <v>18128.099999999999</v>
       </c>
       <c r="AJ10" s="3">
-        <v>831894.4</v>
+        <v>1139313.6000000001</v>
       </c>
       <c r="AK10" s="3">
-        <v>736301.4</v>
+        <v>1091137</v>
       </c>
       <c r="AL10" s="3">
-        <v>4734571.8</v>
+        <v>3682324.6</v>
       </c>
       <c r="AM10" s="3">
-        <v>81333.2</v>
+        <v>111971.6</v>
       </c>
       <c r="AN10" s="3">
-        <v>50051.199999999997</v>
+        <v>68905.600000000006</v>
       </c>
       <c r="AO10" s="3">
-        <v>1580.1</v>
+        <v>2185.3000000000002</v>
       </c>
       <c r="AP10" s="3">
         <v>33</v>
       </c>
       <c r="AQ10" s="3">
-        <v>100012.8</v>
+        <v>137804.79999999999</v>
       </c>
       <c r="AR10" s="3">
-        <v>153687.6</v>
+        <v>212148.6</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
@@ -16506,16 +17600,16 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C11">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="D11" s="2">
-        <v>22.492349999999899</v>
+        <v>11.74601</v>
       </c>
       <c r="E11" s="3">
-        <v>302414</v>
+        <v>190317</v>
       </c>
       <c r="F11">
         <v>75</v>
@@ -16524,115 +17618,115 @@
         <v>50</v>
       </c>
       <c r="H11" s="2">
-        <v>50.143999999999998</v>
+        <v>50.146999999999998</v>
       </c>
       <c r="I11">
-        <v>12.477</v>
+        <v>12.222</v>
       </c>
       <c r="J11">
         <v>3.79</v>
       </c>
       <c r="K11" s="2">
-        <v>7.077</v>
+        <v>8.0030000000000001</v>
       </c>
       <c r="L11" s="2">
-        <v>29.038999999999898</v>
+        <v>24.285</v>
       </c>
       <c r="M11" s="2">
-        <v>50.128999999999998</v>
+        <v>51.171999999999997</v>
       </c>
       <c r="N11" s="1">
-        <v>0.92420159999999996</v>
+        <v>1.57127539999999</v>
       </c>
       <c r="O11" s="2">
-        <v>99.736000000000004</v>
+        <v>99.346999999999994</v>
       </c>
       <c r="P11">
-        <v>60</v>
+        <v>279387.8</v>
       </c>
       <c r="Q11">
-        <v>18.399999999999999</v>
+        <v>255793.7</v>
       </c>
       <c r="R11">
-        <v>11673.1</v>
+        <v>17821.599999999999</v>
       </c>
       <c r="S11">
-        <v>2112.9</v>
+        <v>4813.1000000000004</v>
       </c>
       <c r="T11">
-        <v>479647.4</v>
+        <v>698476.2</v>
       </c>
       <c r="U11">
-        <v>473005.5</v>
+        <v>690453.2</v>
       </c>
       <c r="V11">
-        <v>833849</v>
+        <v>1197076.2</v>
       </c>
       <c r="W11">
-        <v>783728.8</v>
+        <v>1160172</v>
       </c>
       <c r="X11">
-        <v>476217.4</v>
+        <v>694596.8</v>
       </c>
       <c r="Y11">
-        <v>467875.8</v>
+        <v>689481.6</v>
       </c>
       <c r="Z11">
-        <v>831045</v>
+        <v>1204045</v>
       </c>
       <c r="AA11">
-        <v>15735.6</v>
+        <v>837604.4</v>
       </c>
       <c r="AB11">
-        <v>490425.7</v>
+        <v>704747.7</v>
       </c>
       <c r="AC11">
-        <v>473552.1</v>
+        <v>687664.5</v>
       </c>
       <c r="AD11">
-        <v>833700.8</v>
+        <v>1194934.8</v>
       </c>
       <c r="AE11">
-        <v>783545.4</v>
+        <v>1158094.6000000001</v>
       </c>
       <c r="AF11" s="3">
-        <v>963977.8</v>
+        <v>1392412.2</v>
       </c>
       <c r="AG11" s="3">
-        <v>1617246.2</v>
+        <v>2353029.4</v>
       </c>
       <c r="AH11" s="3">
-        <v>78.400000000000006</v>
+        <v>535181.5</v>
       </c>
       <c r="AI11" s="3">
-        <v>13786</v>
+        <v>22634.699999999899</v>
       </c>
       <c r="AJ11" s="3">
-        <v>944093.2</v>
+        <v>1384078.4</v>
       </c>
       <c r="AK11" s="3">
-        <v>846780.6</v>
+        <v>2041649.4</v>
       </c>
       <c r="AL11" s="3">
-        <v>5482791</v>
+        <v>4362845.8</v>
       </c>
       <c r="AM11" s="3">
-        <v>92539.199999999997</v>
+        <v>134752.79999999999</v>
       </c>
       <c r="AN11" s="3">
-        <v>56947.199999999997</v>
+        <v>82924.800000000003</v>
       </c>
       <c r="AO11" s="3">
-        <v>1795.6</v>
+        <v>2623.4</v>
       </c>
       <c r="AP11" s="3">
         <v>33</v>
       </c>
       <c r="AQ11" s="3">
-        <v>114419.2</v>
+        <v>166803.20000000001</v>
       </c>
       <c r="AR11" s="3">
-        <v>175747.4</v>
+        <v>256552.4</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -16640,284 +17734,284 @@
         <v>32</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C12">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="D12" s="2">
-        <v>15.65517</v>
+        <v>5.5093350000000001</v>
       </c>
       <c r="E12" s="3">
-        <v>323590.3</v>
+        <v>80347.759999999995</v>
       </c>
       <c r="F12">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G12" s="2">
-        <v>50</v>
+        <v>50.006999999999898</v>
       </c>
       <c r="H12" s="2">
-        <v>50.13</v>
+        <v>50.298000000000002</v>
       </c>
       <c r="I12">
-        <v>12.522</v>
+        <v>11.878</v>
       </c>
       <c r="J12">
         <v>3.79</v>
       </c>
       <c r="K12" s="2">
-        <v>9.3439999999999994</v>
+        <v>8.4890000000000008</v>
       </c>
       <c r="L12" s="2">
-        <v>25.425999999999998</v>
+        <v>24.62</v>
       </c>
       <c r="M12" s="2">
-        <v>49.07</v>
+        <v>46.690999999999903</v>
       </c>
       <c r="N12" s="1">
-        <v>1.8675930000000001</v>
+        <v>1.4074557999999999</v>
       </c>
       <c r="O12" s="2">
-        <v>99.784999999999997</v>
+        <v>98.816999999999993</v>
       </c>
       <c r="P12">
-        <v>129226.7</v>
+        <v>127411.1</v>
       </c>
       <c r="Q12">
-        <v>118920.5</v>
+        <v>117033.8</v>
       </c>
       <c r="R12">
-        <v>11380.9</v>
+        <v>8708.7000000000007</v>
       </c>
       <c r="S12">
-        <v>3627.7</v>
+        <v>2444.5</v>
       </c>
       <c r="T12">
-        <v>323184.59999999998</v>
+        <v>319600</v>
       </c>
       <c r="U12">
-        <v>320830.7</v>
+        <v>315987.20000000001</v>
       </c>
       <c r="V12">
-        <v>556266.4</v>
+        <v>549202.6</v>
       </c>
       <c r="W12">
-        <v>539070.6</v>
+        <v>532320.80000000005</v>
       </c>
       <c r="X12">
-        <v>321380.8</v>
+        <v>316530.59999999998</v>
       </c>
       <c r="Y12">
-        <v>319078.2</v>
+        <v>314232.59999999998</v>
       </c>
       <c r="Z12">
-        <v>557211</v>
+        <v>547280.19999999995</v>
       </c>
       <c r="AA12">
-        <v>532111</v>
+        <v>1527626.8</v>
       </c>
       <c r="AB12">
-        <v>331960.09999999998</v>
+        <v>325063</v>
       </c>
       <c r="AC12">
-        <v>322606.5</v>
+        <v>317085.8</v>
       </c>
       <c r="AD12">
-        <v>555704.80000000005</v>
+        <v>551830.80000000005</v>
       </c>
       <c r="AE12">
-        <v>538532.30000000005</v>
+        <v>534875.5</v>
       </c>
       <c r="AF12" s="3">
-        <v>654566.6</v>
+        <v>642148.80000000005</v>
       </c>
       <c r="AG12" s="3">
-        <v>1094237.1000000001</v>
+        <v>1086706.3</v>
       </c>
       <c r="AH12" s="3">
-        <v>248147.20000000001</v>
+        <v>244444.9</v>
       </c>
       <c r="AI12" s="3">
-        <v>15008.5999999999</v>
+        <v>11153.2</v>
       </c>
       <c r="AJ12" s="3">
-        <v>640459</v>
+        <v>630763.19999999995</v>
       </c>
       <c r="AK12" s="3">
-        <v>1089322</v>
+        <v>2074907</v>
       </c>
       <c r="AL12" s="3">
-        <v>3561283.2</v>
+        <v>2024781.6</v>
       </c>
       <c r="AM12" s="3">
-        <v>125517.6</v>
+        <v>61968.4</v>
       </c>
       <c r="AN12" s="3">
-        <v>77241.600000000006</v>
+        <v>38134.400000000001</v>
       </c>
       <c r="AO12" s="3">
-        <v>2445.8000000000002</v>
+        <v>1223.7</v>
       </c>
       <c r="AP12" s="3">
         <v>33</v>
       </c>
       <c r="AQ12" s="3">
-        <v>154393.60000000001</v>
+        <v>76345.600000000006</v>
       </c>
       <c r="AR12" s="3">
-        <v>237550.2</v>
+        <v>118039.2</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="C13">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="D13" s="2">
-        <v>44.990780000000001</v>
+        <v>8.8179300000000005</v>
       </c>
       <c r="E13" s="3">
-        <v>462564.55</v>
+        <v>84041.769999999902</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G13" s="2">
-        <v>50.003999999999998</v>
+        <v>50.000999999999998</v>
       </c>
       <c r="H13" s="2">
-        <v>50.065999999999903</v>
+        <v>50.031999999999996</v>
       </c>
       <c r="I13">
-        <v>12.484999999999999</v>
+        <v>12.198</v>
       </c>
       <c r="J13">
         <v>3.79</v>
       </c>
       <c r="K13" s="2">
-        <v>9.2279999999999998</v>
+        <v>7.3570000000000002</v>
       </c>
       <c r="L13" s="2">
-        <v>24.378</v>
+        <v>24.562999999999999</v>
       </c>
       <c r="M13" s="2">
-        <v>50.064</v>
+        <v>49.13</v>
       </c>
       <c r="N13" s="1">
-        <v>1.7730588999999899</v>
+        <v>1.5161922999999999</v>
       </c>
       <c r="O13" s="2">
-        <v>99.162000000000006</v>
+        <v>99.6009999999999</v>
       </c>
       <c r="P13">
-        <v>272189.3</v>
+        <v>130557.1</v>
       </c>
       <c r="Q13">
-        <v>250929.3</v>
+        <v>119131.9</v>
       </c>
       <c r="R13">
-        <v>40258.400000000001</v>
+        <v>8898.2000000000007</v>
       </c>
       <c r="S13">
-        <v>14053.1</v>
+        <v>2495.6999999999998</v>
       </c>
       <c r="T13">
-        <v>676118.2</v>
+        <v>326040.8</v>
       </c>
       <c r="U13">
-        <v>676775.6</v>
+        <v>322263.8</v>
       </c>
       <c r="V13">
-        <v>1157354.1000000001</v>
+        <v>563930.19999999995</v>
       </c>
       <c r="W13">
-        <v>1121567.5</v>
+        <v>546646.80000000005</v>
       </c>
       <c r="X13">
-        <v>663961.5</v>
+        <v>323827</v>
       </c>
       <c r="Y13">
-        <v>659481.59999999998</v>
+        <v>321384.2</v>
       </c>
       <c r="Z13">
-        <v>1151002.7</v>
+        <v>566235</v>
       </c>
       <c r="AA13">
-        <v>3954009.6</v>
+        <v>634919.19999999995</v>
       </c>
       <c r="AB13">
-        <v>693967.2</v>
+        <v>330149.3</v>
       </c>
       <c r="AC13">
-        <v>669675.4</v>
+        <v>322071.5</v>
       </c>
       <c r="AD13">
-        <v>1146045.6000000001</v>
+        <v>561490</v>
       </c>
       <c r="AE13">
-        <v>1110464.2</v>
+        <v>544416.19999999995</v>
       </c>
       <c r="AF13" s="3">
-        <v>1363642.6</v>
+        <v>652220.80000000005</v>
       </c>
       <c r="AG13" s="3">
-        <v>2256509.7999999998</v>
+        <v>1105906.2</v>
       </c>
       <c r="AH13" s="3">
-        <v>523118.6</v>
+        <v>249689</v>
       </c>
       <c r="AI13" s="3">
-        <v>54311.5</v>
+        <v>11393.9</v>
       </c>
       <c r="AJ13" s="3">
-        <v>1323443.1000000001</v>
+        <v>645211.19999999995</v>
       </c>
       <c r="AK13" s="3">
-        <v>5105012.3</v>
+        <v>1201154.2</v>
       </c>
       <c r="AL13" s="3">
-        <v>15053179.199999999</v>
+        <v>2113424.2000000002</v>
       </c>
       <c r="AM13" s="3">
-        <v>524602</v>
+        <v>63299.6</v>
       </c>
       <c r="AN13" s="3">
-        <v>322832</v>
+        <v>38953.599999999999</v>
       </c>
       <c r="AO13" s="3">
-        <v>10152.5</v>
+        <v>1281.3</v>
       </c>
       <c r="AP13" s="3">
         <v>33</v>
       </c>
       <c r="AQ13" s="3">
-        <v>646156.80000000005</v>
+        <v>77868.800000000003</v>
       </c>
       <c r="AR13" s="3">
-        <v>991746.6</v>
+        <v>121555.6</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="C14">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="D14" s="2">
-        <v>8.5782899999999902</v>
+        <v>11.3933699999999</v>
       </c>
       <c r="E14" s="3">
-        <v>143412.4</v>
+        <v>103831.5</v>
       </c>
       <c r="F14">
         <v>75</v>
@@ -16926,936 +18020,936 @@
         <v>50</v>
       </c>
       <c r="H14" s="2">
-        <v>50.183</v>
+        <v>50.195999999999998</v>
       </c>
       <c r="I14">
-        <v>12.421999999999899</v>
+        <v>12.456999999999899</v>
       </c>
       <c r="J14">
         <v>3.79</v>
       </c>
       <c r="K14" s="2">
-        <v>7.5249999999999897</v>
+        <v>7.8409999999999904</v>
       </c>
       <c r="L14" s="2">
-        <v>24.922999999999998</v>
+        <v>23.733999999999899</v>
       </c>
       <c r="M14" s="2">
-        <v>50.292999999999999</v>
+        <v>52.472999999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>1.5632699000000001</v>
+        <v>1.5624701000000001</v>
       </c>
       <c r="O14" s="2">
-        <v>99.482999999999905</v>
+        <v>99.47</v>
       </c>
       <c r="P14">
-        <v>183003.5</v>
+        <v>229852</v>
       </c>
       <c r="Q14">
-        <v>167081.29999999999</v>
+        <v>210639.8</v>
       </c>
       <c r="R14">
-        <v>11376.8</v>
+        <v>14516.5</v>
       </c>
       <c r="S14">
-        <v>3330.4</v>
+        <v>4080.5</v>
       </c>
       <c r="T14">
-        <v>455403.2</v>
+        <v>569887.80000000005</v>
       </c>
       <c r="U14">
-        <v>450361.7</v>
+        <v>563446.80000000005</v>
       </c>
       <c r="V14">
-        <v>781073</v>
+        <v>977798.2</v>
       </c>
       <c r="W14">
-        <v>757060.8</v>
+        <v>947192.4</v>
       </c>
       <c r="X14">
-        <v>448361.4</v>
+        <v>564343</v>
       </c>
       <c r="Y14">
-        <v>444997</v>
+        <v>560174.19999999995</v>
       </c>
       <c r="Z14">
-        <v>780249.8</v>
+        <v>981797.4</v>
       </c>
       <c r="AA14">
-        <v>25480.799999999999</v>
+        <v>2643744.4</v>
       </c>
       <c r="AB14">
-        <v>461989.2</v>
+        <v>577424.4</v>
       </c>
       <c r="AC14">
-        <v>450890.8</v>
+        <v>564428.80000000005</v>
       </c>
       <c r="AD14">
-        <v>782648.8</v>
+        <v>984401.2</v>
       </c>
       <c r="AE14">
-        <v>758498.3</v>
+        <v>953908.2</v>
       </c>
       <c r="AF14" s="3">
-        <v>912880</v>
+        <v>1141853.2</v>
       </c>
       <c r="AG14" s="3">
-        <v>1541147.1</v>
+        <v>1938309.4</v>
       </c>
       <c r="AH14" s="3">
-        <v>350084.8</v>
+        <v>440491.8</v>
       </c>
       <c r="AI14" s="3">
-        <v>14707.199999999901</v>
+        <v>18597</v>
       </c>
       <c r="AJ14" s="3">
-        <v>893358.4</v>
+        <v>1124517.2</v>
       </c>
       <c r="AK14" s="3">
-        <v>805730.6</v>
+        <v>3625541.8</v>
       </c>
       <c r="AL14" s="3">
-        <v>2979414.8</v>
+        <v>3621760.6</v>
       </c>
       <c r="AM14" s="3">
-        <v>88394.8</v>
+        <v>111046</v>
       </c>
       <c r="AN14" s="3">
-        <v>54396.800000000003</v>
+        <v>68336</v>
       </c>
       <c r="AO14" s="3">
-        <v>1731.9</v>
+        <v>2199.5</v>
       </c>
       <c r="AP14" s="3">
         <v>33</v>
       </c>
       <c r="AQ14" s="3">
-        <v>108787.2</v>
+        <v>136108.79999999999</v>
       </c>
       <c r="AR14" s="3">
-        <v>167715.4</v>
+        <v>210735.6</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B15">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C15">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="D15" s="2">
-        <v>13.212389999999999</v>
+        <v>10.60472</v>
       </c>
       <c r="E15" s="3">
-        <v>156940.4</v>
+        <v>90276.4</v>
       </c>
       <c r="F15">
         <v>75</v>
       </c>
       <c r="G15" s="2">
-        <v>50.000999999999998</v>
+        <v>50</v>
       </c>
       <c r="H15" s="2">
-        <v>49.773000000000003</v>
+        <v>50.137999999999899</v>
       </c>
       <c r="I15">
-        <v>12.201000000000001</v>
+        <v>12.44</v>
       </c>
       <c r="J15">
         <v>3.79</v>
       </c>
       <c r="K15" s="2">
-        <v>7.69</v>
+        <v>7.8959999999999999</v>
       </c>
       <c r="L15" s="2">
-        <v>24.395999999999901</v>
+        <v>23.741</v>
       </c>
       <c r="M15" s="2">
-        <v>50.839999999999897</v>
+        <v>52.832000000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>1.5545553000000001</v>
+        <v>1.5752018999999999</v>
       </c>
       <c r="O15" s="2">
-        <v>99.614000000000004</v>
+        <v>99.705999999999904</v>
       </c>
       <c r="P15">
-        <v>231782.1</v>
+        <v>273825.5</v>
       </c>
       <c r="Q15">
-        <v>212460.79999999999</v>
+        <v>250864.3</v>
       </c>
       <c r="R15">
-        <v>14042.2</v>
+        <v>16496</v>
       </c>
       <c r="S15">
-        <v>4085.9</v>
+        <v>4763</v>
       </c>
       <c r="T15">
-        <v>576960.6</v>
+        <v>679546.8</v>
       </c>
       <c r="U15">
-        <v>570466.5</v>
+        <v>672211.2</v>
       </c>
       <c r="V15">
-        <v>991942.2</v>
+        <v>1163707</v>
       </c>
       <c r="W15">
-        <v>961308.4</v>
+        <v>1128217.2</v>
       </c>
       <c r="X15">
-        <v>571724.80000000005</v>
+        <v>673178.4</v>
       </c>
       <c r="Y15">
-        <v>567588.80000000005</v>
+        <v>668300.80000000005</v>
       </c>
       <c r="Z15">
-        <v>994618.6</v>
+        <v>1169692.2</v>
       </c>
       <c r="AA15">
-        <v>96518.399999999994</v>
+        <v>1515394.4</v>
       </c>
       <c r="AB15">
-        <v>583420.5</v>
+        <v>690107.3</v>
       </c>
       <c r="AC15">
-        <v>569490.9</v>
+        <v>673991.6</v>
       </c>
       <c r="AD15">
-        <v>993191.6</v>
+        <v>1175568.8</v>
       </c>
       <c r="AE15">
-        <v>962529.8</v>
+        <v>1139618.2</v>
       </c>
       <c r="AF15" s="3">
-        <v>1152911.3999999999</v>
+        <v>1364098.9</v>
       </c>
       <c r="AG15" s="3">
-        <v>1955721.4</v>
+        <v>2315187</v>
       </c>
       <c r="AH15" s="3">
-        <v>444242.9</v>
+        <v>524689.80000000005</v>
       </c>
       <c r="AI15" s="3">
-        <v>18128.099999999999</v>
+        <v>21259</v>
       </c>
       <c r="AJ15" s="3">
-        <v>1139313.6000000001</v>
+        <v>1341479.2</v>
       </c>
       <c r="AK15" s="3">
-        <v>1091137</v>
+        <v>2685086.5999999898</v>
       </c>
       <c r="AL15" s="3">
-        <v>3682324.6</v>
+        <v>4355753.4000000004</v>
       </c>
       <c r="AM15" s="3">
-        <v>111971.6</v>
+        <v>131669.20000000001</v>
       </c>
       <c r="AN15" s="3">
-        <v>68905.600000000006</v>
+        <v>81027.199999999997</v>
       </c>
       <c r="AO15" s="3">
-        <v>2185.3000000000002</v>
+        <v>2596.1</v>
       </c>
       <c r="AP15" s="3">
         <v>33</v>
       </c>
       <c r="AQ15" s="3">
-        <v>137804.79999999999</v>
+        <v>162336</v>
       </c>
       <c r="AR15" s="3">
-        <v>212148.6</v>
+        <v>250896</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B16">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="D16" s="2">
-        <v>11.74601</v>
+        <v>7.1437099999999996</v>
       </c>
       <c r="E16" s="3">
-        <v>190317</v>
+        <v>58110.37</v>
       </c>
       <c r="F16">
         <v>75</v>
       </c>
       <c r="G16" s="2">
-        <v>50</v>
+        <v>50.005000000000003</v>
       </c>
       <c r="H16" s="2">
-        <v>50.146999999999998</v>
+        <v>48.417000000000002</v>
       </c>
       <c r="I16">
-        <v>12.222</v>
+        <v>12.157</v>
       </c>
       <c r="J16">
         <v>3.79</v>
       </c>
       <c r="K16" s="2">
-        <v>8.0030000000000001</v>
+        <v>8.1110000000000007</v>
       </c>
       <c r="L16" s="2">
-        <v>24.285</v>
+        <v>25.079000000000001</v>
       </c>
       <c r="M16" s="2">
-        <v>51.171999999999997</v>
+        <v>46.564</v>
       </c>
       <c r="N16" s="1">
-        <v>1.57127539999999</v>
+        <v>1.43904819999999</v>
       </c>
       <c r="O16" s="2">
-        <v>99.346999999999994</v>
+        <v>97.713999999999899</v>
       </c>
       <c r="P16">
-        <v>279387.8</v>
+        <v>156376.79999999999</v>
       </c>
       <c r="Q16">
-        <v>255793.7</v>
+        <v>143325.1</v>
       </c>
       <c r="R16">
-        <v>17821.599999999999</v>
+        <v>10577.8</v>
       </c>
       <c r="S16">
-        <v>4813.1000000000004</v>
+        <v>2926.9</v>
       </c>
       <c r="T16">
-        <v>698476.2</v>
+        <v>389488.6</v>
       </c>
       <c r="U16">
-        <v>690453.2</v>
+        <v>385137</v>
       </c>
       <c r="V16">
-        <v>1197076.2</v>
+        <v>672895</v>
       </c>
       <c r="W16">
-        <v>1160172</v>
+        <v>652201.19999999995</v>
       </c>
       <c r="X16">
-        <v>694596.8</v>
+        <v>385424.8</v>
       </c>
       <c r="Y16">
-        <v>689481.6</v>
+        <v>382560.8</v>
       </c>
       <c r="Z16">
-        <v>1204045</v>
+        <v>670383.4</v>
       </c>
       <c r="AA16">
-        <v>837604.4</v>
+        <v>26446</v>
       </c>
       <c r="AB16">
-        <v>704747.7</v>
+        <v>393861.9</v>
       </c>
       <c r="AC16">
-        <v>687664.5</v>
+        <v>384261.9</v>
       </c>
       <c r="AD16">
-        <v>1194934.8</v>
+        <v>676649.6</v>
       </c>
       <c r="AE16">
-        <v>1158094.6000000001</v>
+        <v>655799</v>
       </c>
       <c r="AF16" s="3">
-        <v>1392412.2</v>
+        <v>778123.8</v>
       </c>
       <c r="AG16" s="3">
-        <v>2353029.4</v>
+        <v>1332448.6000000001</v>
       </c>
       <c r="AH16" s="3">
-        <v>535181.5</v>
+        <v>299701.90000000002</v>
       </c>
       <c r="AI16" s="3">
-        <v>22634.699999999899</v>
+        <v>13504.699999999901</v>
       </c>
       <c r="AJ16" s="3">
-        <v>1384078.4</v>
+        <v>767985.6</v>
       </c>
       <c r="AK16" s="3">
-        <v>2041649.4</v>
+        <v>696829.4</v>
       </c>
       <c r="AL16" s="3">
-        <v>4362845.8</v>
+        <v>2473904.7999999998</v>
       </c>
       <c r="AM16" s="3">
-        <v>134752.79999999999</v>
+        <v>75665.2</v>
       </c>
       <c r="AN16" s="3">
-        <v>82924.800000000003</v>
+        <v>46563.199999999997</v>
       </c>
       <c r="AO16" s="3">
-        <v>2623.4</v>
+        <v>1519.1</v>
       </c>
       <c r="AP16" s="3">
         <v>33</v>
       </c>
       <c r="AQ16" s="3">
-        <v>166803.20000000001</v>
+        <v>93036.800000000003</v>
       </c>
       <c r="AR16" s="3">
-        <v>256552.4</v>
+        <v>144781.6</v>
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="C17">
-        <v>1024</v>
+        <v>4096</v>
       </c>
       <c r="D17" s="2">
-        <v>5.5093350000000001</v>
+        <v>10.12942</v>
       </c>
       <c r="E17" s="3">
-        <v>80347.759999999995</v>
+        <v>57177.1</v>
       </c>
       <c r="F17">
         <v>75</v>
       </c>
       <c r="G17" s="2">
-        <v>50.006999999999898</v>
+        <v>50</v>
       </c>
       <c r="H17" s="2">
-        <v>50.298000000000002</v>
+        <v>49.856999999999999</v>
       </c>
       <c r="I17">
-        <v>11.878</v>
+        <v>12.513999999999999</v>
       </c>
       <c r="J17">
         <v>3.79</v>
       </c>
       <c r="K17" s="2">
-        <v>8.4890000000000008</v>
+        <v>7.57</v>
       </c>
       <c r="L17" s="2">
-        <v>24.62</v>
+        <v>24.184999999999999</v>
       </c>
       <c r="M17" s="2">
-        <v>46.690999999999903</v>
+        <v>51.456999999999901</v>
       </c>
       <c r="N17" s="1">
-        <v>1.4074557999999999</v>
+        <v>1.5516013</v>
       </c>
       <c r="O17" s="2">
-        <v>98.816999999999993</v>
+        <v>99.858000000000004</v>
       </c>
       <c r="P17">
-        <v>127411.1</v>
+        <v>182307.6</v>
       </c>
       <c r="Q17">
-        <v>117033.8</v>
+        <v>167300.70000000001</v>
       </c>
       <c r="R17">
-        <v>8708.7000000000007</v>
+        <v>12041.4</v>
       </c>
       <c r="S17">
-        <v>2444.5</v>
+        <v>3381.9</v>
       </c>
       <c r="T17">
-        <v>319600</v>
+        <v>451681</v>
       </c>
       <c r="U17">
-        <v>315987.20000000001</v>
+        <v>446664.6</v>
       </c>
       <c r="V17">
-        <v>549202.6</v>
+        <v>787551.8</v>
       </c>
       <c r="W17">
-        <v>532320.80000000005</v>
+        <v>763434</v>
       </c>
       <c r="X17">
-        <v>316530.59999999998</v>
+        <v>444782.2</v>
       </c>
       <c r="Y17">
-        <v>314232.59999999998</v>
+        <v>441611</v>
       </c>
       <c r="Z17">
-        <v>547280.19999999995</v>
+        <v>785748.6</v>
       </c>
       <c r="AA17">
-        <v>1527626.8</v>
+        <v>1699896.8</v>
       </c>
       <c r="AB17">
-        <v>325063</v>
+        <v>454907.6</v>
       </c>
       <c r="AC17">
-        <v>317085.8</v>
+        <v>443772.3</v>
       </c>
       <c r="AD17">
-        <v>551830.80000000005</v>
+        <v>782580</v>
       </c>
       <c r="AE17">
-        <v>534875.5</v>
+        <v>758401.4</v>
       </c>
       <c r="AF17" s="3">
-        <v>642148.80000000005</v>
+        <v>898679.89999999898</v>
       </c>
       <c r="AG17" s="3">
-        <v>1086706.3</v>
+        <v>1540981.4</v>
       </c>
       <c r="AH17" s="3">
-        <v>244444.9</v>
+        <v>349608.3</v>
       </c>
       <c r="AI17" s="3">
-        <v>11153.2</v>
+        <v>15423.3</v>
       </c>
       <c r="AJ17" s="3">
-        <v>630763.19999999995</v>
+        <v>886393.2</v>
       </c>
       <c r="AK17" s="3">
-        <v>2074907</v>
+        <v>2485645.4</v>
       </c>
       <c r="AL17" s="3">
-        <v>2024781.6</v>
+        <v>2924171</v>
       </c>
       <c r="AM17" s="3">
-        <v>61968.4</v>
+        <v>88030.8</v>
       </c>
       <c r="AN17" s="3">
-        <v>38134.400000000001</v>
+        <v>54172.800000000003</v>
       </c>
       <c r="AO17" s="3">
-        <v>1223.7</v>
+        <v>1820.9</v>
       </c>
       <c r="AP17" s="3">
         <v>33</v>
       </c>
       <c r="AQ17" s="3">
-        <v>76345.600000000006</v>
+        <v>107884.8</v>
       </c>
       <c r="AR17" s="3">
-        <v>118039.2</v>
+        <v>169885.6</v>
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="C18">
-        <v>1024</v>
+        <v>4096</v>
       </c>
       <c r="D18" s="2">
-        <v>8.1571599999999993</v>
+        <v>15.189509999999901</v>
       </c>
       <c r="E18" s="3">
-        <v>123622.29</v>
+        <v>36958.300000000003</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G18" s="2">
         <v>50.003</v>
       </c>
       <c r="H18" s="2">
-        <v>49.863</v>
+        <v>49.000999999999898</v>
       </c>
       <c r="I18">
-        <v>12.250999999999999</v>
+        <v>12.108999999999901</v>
       </c>
       <c r="J18">
         <v>3.79</v>
       </c>
       <c r="K18" s="2">
-        <v>9.516</v>
+        <v>7.67</v>
       </c>
       <c r="L18" s="2">
-        <v>25.695</v>
+        <v>24.13</v>
       </c>
       <c r="M18" s="2">
-        <v>47.050999999999902</v>
+        <v>49.601999999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>1.8004753999999901</v>
+        <v>1.4531864999999999</v>
       </c>
       <c r="O18" s="2">
-        <v>99.320999999999998</v>
+        <v>99.363</v>
       </c>
       <c r="P18">
-        <v>181383.1</v>
+        <v>283677.09999999998</v>
       </c>
       <c r="Q18">
-        <v>166709.70000000001</v>
+        <v>259828.1</v>
       </c>
       <c r="R18">
-        <v>16239.6</v>
+        <v>18419</v>
       </c>
       <c r="S18">
-        <v>4961.8999999999996</v>
+        <v>5007.5</v>
       </c>
       <c r="T18">
-        <v>450794.4</v>
+        <v>703961.59999999998</v>
       </c>
       <c r="U18">
-        <v>447650.5</v>
+        <v>696096.9</v>
       </c>
       <c r="V18">
-        <v>773256.6</v>
+        <v>1215945.3999999999</v>
       </c>
       <c r="W18">
-        <v>749192.8</v>
+        <v>1177749.2</v>
       </c>
       <c r="X18">
-        <v>447947.8</v>
+        <v>701034</v>
       </c>
       <c r="Y18">
-        <v>444847.4</v>
+        <v>695938.8</v>
       </c>
       <c r="Z18">
-        <v>778130.2</v>
+        <v>1212721.3999999999</v>
       </c>
       <c r="AA18">
-        <v>15434.8</v>
+        <v>949927.2</v>
       </c>
       <c r="AB18">
-        <v>460748.4</v>
+        <v>717907.6</v>
       </c>
       <c r="AC18">
-        <v>447324.2</v>
+        <v>701371.2</v>
       </c>
       <c r="AD18">
-        <v>775363.2</v>
+        <v>1214711.2</v>
       </c>
       <c r="AE18">
-        <v>751455.4</v>
+        <v>1177205.3999999999</v>
       </c>
       <c r="AF18" s="3">
-        <v>908072.6</v>
+        <v>1419278.79999999</v>
       </c>
       <c r="AG18" s="3">
-        <v>1526818.6</v>
+        <v>2391916.5999999898</v>
       </c>
       <c r="AH18" s="3">
-        <v>348092.8</v>
+        <v>543505.19999999995</v>
       </c>
       <c r="AI18" s="3">
-        <v>21201.5</v>
+        <v>23426.5</v>
       </c>
       <c r="AJ18" s="3">
-        <v>892795.2</v>
+        <v>1396972.8</v>
       </c>
       <c r="AK18" s="3">
-        <v>793565</v>
+        <v>2162648.5999999898</v>
       </c>
       <c r="AL18" s="3">
-        <v>4880213.2</v>
+        <v>4452165</v>
       </c>
       <c r="AM18" s="3">
-        <v>175068.4</v>
+        <v>137066.79999999999</v>
       </c>
       <c r="AN18" s="3">
-        <v>107734.39999999999</v>
+        <v>84348.800000000003</v>
       </c>
       <c r="AO18" s="3">
-        <v>3430.7</v>
+        <v>2763.9</v>
       </c>
       <c r="AP18" s="3">
         <v>33</v>
       </c>
       <c r="AQ18" s="3">
-        <v>215372.79999999999</v>
+        <v>168128</v>
       </c>
       <c r="AR18" s="3">
-        <v>332108.59999999998</v>
+        <v>262133</v>
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B19">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="C19">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="D19" s="2">
-        <v>8.8179300000000005</v>
+        <v>8.2026599999999998</v>
       </c>
       <c r="E19" s="3">
-        <v>84041.769999999902</v>
+        <v>52280.94</v>
       </c>
       <c r="F19">
         <v>75</v>
       </c>
       <c r="G19" s="2">
-        <v>50.000999999999998</v>
+        <v>50</v>
       </c>
       <c r="H19" s="2">
-        <v>50.031999999999996</v>
+        <v>49.786999999999999</v>
       </c>
       <c r="I19">
-        <v>12.198</v>
+        <v>12.442</v>
       </c>
       <c r="J19">
         <v>3.79</v>
       </c>
       <c r="K19" s="2">
-        <v>7.3570000000000002</v>
+        <v>7.8170000000000002</v>
       </c>
       <c r="L19" s="2">
-        <v>24.562999999999999</v>
+        <v>24.2149999999999</v>
       </c>
       <c r="M19" s="2">
-        <v>49.13</v>
+        <v>51.708999999999897</v>
       </c>
       <c r="N19" s="1">
-        <v>1.5161922999999999</v>
+        <v>1.5590215999999999</v>
       </c>
       <c r="O19" s="2">
-        <v>99.6009999999999</v>
+        <v>99.548000000000002</v>
       </c>
       <c r="P19">
-        <v>130557.1</v>
+        <v>189124</v>
       </c>
       <c r="Q19">
-        <v>119131.9</v>
+        <v>172467.3</v>
       </c>
       <c r="R19">
-        <v>8898.2000000000007</v>
+        <v>12154.6</v>
       </c>
       <c r="S19">
-        <v>2495.6999999999998</v>
+        <v>3529.2</v>
       </c>
       <c r="T19">
-        <v>326040.8</v>
+        <v>473933.4</v>
       </c>
       <c r="U19">
-        <v>322263.8</v>
+        <v>468864.4</v>
       </c>
       <c r="V19">
-        <v>563930.19999999995</v>
+        <v>819531</v>
       </c>
       <c r="W19">
-        <v>546646.80000000005</v>
+        <v>794915.6</v>
       </c>
       <c r="X19">
-        <v>323827</v>
+        <v>468704.8</v>
       </c>
       <c r="Y19">
-        <v>321384.2</v>
+        <v>465204.4</v>
       </c>
       <c r="Z19">
-        <v>566235</v>
+        <v>818765.4</v>
       </c>
       <c r="AA19">
-        <v>634919.19999999995</v>
+        <v>181512.8</v>
       </c>
       <c r="AB19">
-        <v>330149.3</v>
+        <v>481005.4</v>
       </c>
       <c r="AC19">
-        <v>322071.5</v>
+        <v>469784.3</v>
       </c>
       <c r="AD19">
-        <v>561490</v>
+        <v>821371.6</v>
       </c>
       <c r="AE19">
-        <v>544416.19999999995</v>
+        <v>796088.2</v>
       </c>
       <c r="AF19" s="3">
-        <v>652220.80000000005</v>
+        <v>950789.7</v>
       </c>
       <c r="AG19" s="3">
-        <v>1105906.2</v>
+        <v>1617459.79999999</v>
       </c>
       <c r="AH19" s="3">
-        <v>249689</v>
+        <v>361591.3</v>
       </c>
       <c r="AI19" s="3">
-        <v>11393.9</v>
+        <v>15683.8</v>
       </c>
       <c r="AJ19" s="3">
-        <v>645211.19999999995</v>
+        <v>933909.2</v>
       </c>
       <c r="AK19" s="3">
-        <v>1201154.2</v>
+        <v>1000278.2</v>
       </c>
       <c r="AL19" s="3">
-        <v>2113424.2000000002</v>
+        <v>3016169</v>
       </c>
       <c r="AM19" s="3">
-        <v>63299.6</v>
+        <v>91514.8</v>
       </c>
       <c r="AN19" s="3">
-        <v>38953.599999999999</v>
+        <v>56316.800000000003</v>
       </c>
       <c r="AO19" s="3">
-        <v>1281.3</v>
+        <v>1887.9</v>
       </c>
       <c r="AP19" s="3">
         <v>33</v>
       </c>
       <c r="AQ19" s="3">
-        <v>77868.800000000003</v>
+        <v>113222.39999999999</v>
       </c>
       <c r="AR19" s="3">
-        <v>121555.6</v>
+        <v>178058.8</v>
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B20">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="C20">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="D20" s="2">
-        <v>11.3933699999999</v>
+        <v>13.544059999999901</v>
       </c>
       <c r="E20" s="3">
-        <v>103831.5</v>
+        <v>15103.309999999899</v>
       </c>
       <c r="F20">
         <v>75</v>
       </c>
       <c r="G20" s="2">
-        <v>50</v>
+        <v>50.000999999999998</v>
       </c>
       <c r="H20" s="2">
-        <v>50.195999999999998</v>
+        <v>49.628</v>
       </c>
       <c r="I20">
-        <v>12.456999999999899</v>
+        <v>12.404</v>
       </c>
       <c r="J20">
         <v>3.79</v>
       </c>
       <c r="K20" s="2">
-        <v>7.8409999999999904</v>
+        <v>6.8679999999999897</v>
       </c>
       <c r="L20" s="2">
-        <v>23.733999999999899</v>
+        <v>26.074999999999999</v>
       </c>
       <c r="M20" s="2">
-        <v>52.472999999999999</v>
+        <v>46.008000000000003</v>
       </c>
       <c r="N20" s="1">
-        <v>1.5624701000000001</v>
+        <v>1.4099120999999999</v>
       </c>
       <c r="O20" s="2">
-        <v>99.47</v>
+        <v>99.653999999999996</v>
       </c>
       <c r="P20">
-        <v>229852</v>
+        <v>260098.5</v>
       </c>
       <c r="Q20">
-        <v>210639.8</v>
+        <v>238817.7</v>
       </c>
       <c r="R20">
-        <v>14516.5</v>
+        <v>16895.5</v>
       </c>
       <c r="S20">
-        <v>4080.5</v>
+        <v>4744.3999999999996</v>
       </c>
       <c r="T20">
-        <v>569887.80000000005</v>
+        <v>647065.19999999995</v>
       </c>
       <c r="U20">
-        <v>563446.80000000005</v>
+        <v>640018.69999999995</v>
       </c>
       <c r="V20">
-        <v>977798.2</v>
+        <v>1129577.8</v>
       </c>
       <c r="W20">
-        <v>947192.4</v>
+        <v>1095209.6000000001</v>
       </c>
       <c r="X20">
-        <v>564343</v>
+        <v>641767.4</v>
       </c>
       <c r="Y20">
-        <v>560174.19999999995</v>
+        <v>637077.80000000005</v>
       </c>
       <c r="Z20">
-        <v>981797.4</v>
+        <v>1121733</v>
       </c>
       <c r="AA20">
-        <v>2643744.4</v>
+        <v>1992412</v>
       </c>
       <c r="AB20">
-        <v>577424.4</v>
+        <v>657282.4</v>
       </c>
       <c r="AC20">
-        <v>564428.80000000005</v>
+        <v>641532.6</v>
       </c>
       <c r="AD20">
-        <v>984401.2</v>
+        <v>1122731.6000000001</v>
       </c>
       <c r="AE20">
-        <v>953908.2</v>
+        <v>1088164.2</v>
       </c>
       <c r="AF20" s="3">
-        <v>1141853.2</v>
+        <v>1298815</v>
       </c>
       <c r="AG20" s="3">
-        <v>1938309.4</v>
+        <v>2210895.7999999998</v>
       </c>
       <c r="AH20" s="3">
-        <v>440491.8</v>
+        <v>498916.2</v>
       </c>
       <c r="AI20" s="3">
-        <v>18597</v>
+        <v>21639.9</v>
       </c>
       <c r="AJ20" s="3">
-        <v>1124517.2</v>
+        <v>1278845.2</v>
       </c>
       <c r="AK20" s="3">
-        <v>3625541.8</v>
+        <v>3114145</v>
       </c>
       <c r="AL20" s="3">
-        <v>3621760.6</v>
+        <v>4167621.6</v>
       </c>
       <c r="AM20" s="3">
-        <v>111046</v>
+        <v>125392.8</v>
       </c>
       <c r="AN20" s="3">
-        <v>68336</v>
+        <v>77164.800000000003</v>
       </c>
       <c r="AO20" s="3">
-        <v>2199.5</v>
+        <v>2667.4</v>
       </c>
       <c r="AP20" s="3">
         <v>33</v>
       </c>
       <c r="AQ20" s="3">
-        <v>136108.79999999999</v>
+        <v>154547.20000000001</v>
       </c>
       <c r="AR20" s="3">
-        <v>210735.6</v>
+        <v>246073.4</v>
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B21">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C21">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="D21" s="2">
-        <v>10.60472</v>
+        <v>12.338469999999999</v>
       </c>
       <c r="E21" s="3">
-        <v>90276.4</v>
+        <v>18581.41</v>
       </c>
       <c r="F21">
         <v>75</v>
@@ -17864,115 +18958,115 @@
         <v>50</v>
       </c>
       <c r="H21" s="2">
-        <v>50.137999999999899</v>
+        <v>50.198</v>
       </c>
       <c r="I21">
-        <v>12.44</v>
+        <v>12.467000000000001</v>
       </c>
       <c r="J21">
         <v>3.79</v>
       </c>
       <c r="K21" s="2">
-        <v>7.8959999999999999</v>
+        <v>7.6649999999999903</v>
       </c>
       <c r="L21" s="2">
-        <v>23.741</v>
+        <v>24.972999999999999</v>
       </c>
       <c r="M21" s="2">
-        <v>52.832000000000001</v>
+        <v>50.445999999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>1.5752018999999999</v>
+        <v>1.5718141999999999</v>
       </c>
       <c r="O21" s="2">
-        <v>99.705999999999904</v>
+        <v>99.825999999999993</v>
       </c>
       <c r="P21">
-        <v>273825.5</v>
+        <v>257409.4</v>
       </c>
       <c r="Q21">
-        <v>250864.3</v>
+        <v>236656.1</v>
       </c>
       <c r="R21">
-        <v>16496</v>
+        <v>15715.5</v>
       </c>
       <c r="S21">
-        <v>4763</v>
+        <v>4731.6000000000004</v>
       </c>
       <c r="T21">
-        <v>679546.8</v>
+        <v>642491.19999999995</v>
       </c>
       <c r="U21">
-        <v>672211.2</v>
+        <v>635585</v>
       </c>
       <c r="V21">
-        <v>1163707</v>
+        <v>1115635.8</v>
       </c>
       <c r="W21">
-        <v>1128217.2</v>
+        <v>1081850.8</v>
       </c>
       <c r="X21">
-        <v>673178.4</v>
+        <v>635588</v>
       </c>
       <c r="Y21">
-        <v>668300.80000000005</v>
+        <v>631011.19999999995</v>
       </c>
       <c r="Z21">
-        <v>1169692.2</v>
+        <v>1119961.8</v>
       </c>
       <c r="AA21">
-        <v>1515394.4</v>
+        <v>535298</v>
       </c>
       <c r="AB21">
-        <v>690107.3</v>
+        <v>646276.6</v>
       </c>
       <c r="AC21">
-        <v>673991.6</v>
+        <v>631681.1</v>
       </c>
       <c r="AD21">
-        <v>1175568.8</v>
+        <v>1118107.2</v>
       </c>
       <c r="AE21">
-        <v>1139618.2</v>
+        <v>1083025.3999999999</v>
       </c>
       <c r="AF21" s="3">
-        <v>1364098.9</v>
+        <v>1277957.7</v>
       </c>
       <c r="AG21" s="3">
-        <v>2315187</v>
+        <v>2201132.5999999898</v>
       </c>
       <c r="AH21" s="3">
-        <v>524689.80000000005</v>
+        <v>494065.5</v>
       </c>
       <c r="AI21" s="3">
-        <v>21259</v>
+        <v>20447.099999999999</v>
       </c>
       <c r="AJ21" s="3">
-        <v>1341479.2</v>
+        <v>1266599.2</v>
       </c>
       <c r="AK21" s="3">
-        <v>2685086.5999999898</v>
+        <v>1655259.8</v>
       </c>
       <c r="AL21" s="3">
-        <v>4355753.4000000004</v>
+        <v>4179683.4</v>
       </c>
       <c r="AM21" s="3">
-        <v>131669.20000000001</v>
+        <v>124321.60000000001</v>
       </c>
       <c r="AN21" s="3">
-        <v>81027.199999999997</v>
+        <v>76505.600000000006</v>
       </c>
       <c r="AO21" s="3">
-        <v>2596.1</v>
+        <v>2646.8</v>
       </c>
       <c r="AP21" s="3">
         <v>33</v>
       </c>
       <c r="AQ21" s="3">
-        <v>162336</v>
+        <v>153465.60000000001</v>
       </c>
       <c r="AR21" s="3">
-        <v>250896</v>
+        <v>244417.2</v>
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
@@ -17980,949 +19074,145 @@
         <v>64</v>
       </c>
       <c r="B22">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="C22">
-        <v>2048</v>
+        <v>16384</v>
       </c>
       <c r="D22" s="2">
-        <v>7.1437099999999996</v>
+        <v>9.1497200000000003</v>
       </c>
       <c r="E22" s="3">
-        <v>58110.37</v>
+        <v>10257.8397656</v>
       </c>
       <c r="F22">
         <v>75</v>
       </c>
       <c r="G22" s="2">
-        <v>50.005000000000003</v>
+        <v>50.001999999999903</v>
       </c>
       <c r="H22" s="2">
-        <v>48.417000000000002</v>
+        <v>50.507999999999903</v>
       </c>
       <c r="I22">
-        <v>12.157</v>
+        <v>12.420999999999999</v>
       </c>
       <c r="J22">
         <v>3.79</v>
       </c>
       <c r="K22" s="2">
-        <v>8.1110000000000007</v>
+        <v>6.8719999999999999</v>
       </c>
       <c r="L22" s="2">
-        <v>25.079000000000001</v>
+        <v>26.064</v>
       </c>
       <c r="M22" s="2">
-        <v>46.564</v>
+        <v>46.875999999999998</v>
       </c>
       <c r="N22" s="1">
-        <v>1.43904819999999</v>
+        <v>1.3933465</v>
       </c>
       <c r="O22" s="2">
-        <v>97.713999999999899</v>
+        <v>99.758999999999901</v>
       </c>
       <c r="P22">
-        <v>156376.79999999999</v>
+        <v>209812.6</v>
       </c>
       <c r="Q22">
-        <v>143325.1</v>
+        <v>192187</v>
       </c>
       <c r="R22">
-        <v>10577.8</v>
+        <v>13152.7</v>
       </c>
       <c r="S22">
-        <v>2926.9</v>
+        <v>4236.1000000000004</v>
       </c>
       <c r="T22">
-        <v>389488.6</v>
+        <v>520607</v>
       </c>
       <c r="U22">
-        <v>385137</v>
+        <v>514997</v>
       </c>
       <c r="V22">
-        <v>672895</v>
+        <v>927100.2</v>
       </c>
       <c r="W22">
-        <v>652201.19999999995</v>
+        <v>899666.4</v>
       </c>
       <c r="X22">
-        <v>385424.8</v>
+        <v>515802.8</v>
       </c>
       <c r="Y22">
-        <v>382560.8</v>
+        <v>511904.8</v>
       </c>
       <c r="Z22">
-        <v>670383.4</v>
+        <v>930745.4</v>
       </c>
       <c r="AA22">
-        <v>26446</v>
+        <v>25807.200000000001</v>
       </c>
       <c r="AB22">
-        <v>393861.9</v>
+        <v>530245.6</v>
       </c>
       <c r="AC22">
-        <v>384261.9</v>
+        <v>518058</v>
       </c>
       <c r="AD22">
-        <v>676649.6</v>
+        <v>932761.2</v>
       </c>
       <c r="AE22">
-        <v>655799</v>
+        <v>904521.8</v>
       </c>
       <c r="AF22" s="3">
-        <v>778123.8</v>
+        <v>1048303.6</v>
       </c>
       <c r="AG22" s="3">
-        <v>1332448.6000000001</v>
+        <v>1837283</v>
       </c>
       <c r="AH22" s="3">
-        <v>299701.90000000002</v>
+        <v>401999.6</v>
       </c>
       <c r="AI22" s="3">
-        <v>13504.699999999901</v>
+        <v>17388.8</v>
       </c>
       <c r="AJ22" s="3">
-        <v>767985.6</v>
+        <v>1027707.6</v>
       </c>
       <c r="AK22" s="3">
-        <v>696829.4</v>
+        <v>956552.6</v>
       </c>
       <c r="AL22" s="3">
-        <v>2473904.7999999998</v>
+        <v>3548211.2000000002</v>
       </c>
       <c r="AM22" s="3">
-        <v>75665.2</v>
+        <v>101290.8</v>
       </c>
       <c r="AN22" s="3">
-        <v>46563.199999999997</v>
+        <v>62332.800000000003</v>
       </c>
       <c r="AO22" s="3">
-        <v>1519.1</v>
+        <v>2459.9</v>
       </c>
       <c r="AP22" s="3">
         <v>33</v>
       </c>
       <c r="AQ22" s="3">
-        <v>93036.800000000003</v>
+        <v>124320</v>
       </c>
       <c r="AR22" s="3">
-        <v>144781.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>16</v>
-      </c>
-      <c r="B23">
-        <v>256</v>
-      </c>
-      <c r="C23">
-        <v>4096</v>
-      </c>
-      <c r="D23" s="2">
-        <v>10.12942</v>
-      </c>
-      <c r="E23" s="3">
-        <v>57177.1</v>
-      </c>
-      <c r="F23">
-        <v>75</v>
-      </c>
-      <c r="G23" s="2">
-        <v>50</v>
-      </c>
-      <c r="H23" s="2">
-        <v>49.856999999999999</v>
-      </c>
-      <c r="I23">
-        <v>12.513999999999999</v>
-      </c>
-      <c r="J23">
-        <v>3.79</v>
-      </c>
-      <c r="K23" s="2">
-        <v>7.57</v>
-      </c>
-      <c r="L23" s="2">
-        <v>24.184999999999999</v>
-      </c>
-      <c r="M23" s="2">
-        <v>51.456999999999901</v>
-      </c>
-      <c r="N23" s="1">
-        <v>1.5516013</v>
-      </c>
-      <c r="O23" s="2">
-        <v>99.858000000000004</v>
-      </c>
-      <c r="P23">
-        <v>182307.6</v>
-      </c>
-      <c r="Q23">
-        <v>167300.70000000001</v>
-      </c>
-      <c r="R23">
-        <v>12041.4</v>
-      </c>
-      <c r="S23">
-        <v>3381.9</v>
-      </c>
-      <c r="T23">
-        <v>451681</v>
-      </c>
-      <c r="U23">
-        <v>446664.6</v>
-      </c>
-      <c r="V23">
-        <v>787551.8</v>
-      </c>
-      <c r="W23">
-        <v>763434</v>
-      </c>
-      <c r="X23">
-        <v>444782.2</v>
-      </c>
-      <c r="Y23">
-        <v>441611</v>
-      </c>
-      <c r="Z23">
-        <v>785748.6</v>
-      </c>
-      <c r="AA23">
-        <v>1699896.8</v>
-      </c>
-      <c r="AB23">
-        <v>454907.6</v>
-      </c>
-      <c r="AC23">
-        <v>443772.3</v>
-      </c>
-      <c r="AD23">
-        <v>782580</v>
-      </c>
-      <c r="AE23">
-        <v>758401.4</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>898679.89999999898</v>
-      </c>
-      <c r="AG23" s="3">
-        <v>1540981.4</v>
-      </c>
-      <c r="AH23" s="3">
-        <v>349608.3</v>
-      </c>
-      <c r="AI23" s="3">
-        <v>15423.3</v>
-      </c>
-      <c r="AJ23" s="3">
-        <v>886393.2</v>
-      </c>
-      <c r="AK23" s="3">
-        <v>2485645.4</v>
-      </c>
-      <c r="AL23" s="3">
-        <v>2924171</v>
-      </c>
-      <c r="AM23" s="3">
-        <v>88030.8</v>
-      </c>
-      <c r="AN23" s="3">
-        <v>54172.800000000003</v>
-      </c>
-      <c r="AO23" s="3">
-        <v>1820.9</v>
-      </c>
-      <c r="AP23" s="3">
-        <v>33</v>
-      </c>
-      <c r="AQ23" s="3">
-        <v>107884.8</v>
-      </c>
-      <c r="AR23" s="3">
-        <v>169885.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>32</v>
-      </c>
-      <c r="B24">
-        <v>128</v>
-      </c>
-      <c r="C24">
-        <v>4096</v>
-      </c>
-      <c r="D24" s="2">
-        <v>15.189509999999901</v>
-      </c>
-      <c r="E24" s="3">
-        <v>36958.300000000003</v>
-      </c>
-      <c r="F24">
-        <v>75</v>
-      </c>
-      <c r="G24" s="2">
-        <v>50.003</v>
-      </c>
-      <c r="H24" s="2">
-        <v>49.000999999999898</v>
-      </c>
-      <c r="I24">
-        <v>12.108999999999901</v>
-      </c>
-      <c r="J24">
-        <v>3.79</v>
-      </c>
-      <c r="K24" s="2">
-        <v>7.67</v>
-      </c>
-      <c r="L24" s="2">
-        <v>24.13</v>
-      </c>
-      <c r="M24" s="2">
-        <v>49.601999999999997</v>
-      </c>
-      <c r="N24" s="1">
-        <v>1.4531864999999999</v>
-      </c>
-      <c r="O24" s="2">
-        <v>99.363</v>
-      </c>
-      <c r="P24">
-        <v>283677.09999999998</v>
-      </c>
-      <c r="Q24">
-        <v>259828.1</v>
-      </c>
-      <c r="R24">
-        <v>18419</v>
-      </c>
-      <c r="S24">
-        <v>5007.5</v>
-      </c>
-      <c r="T24">
-        <v>703961.59999999998</v>
-      </c>
-      <c r="U24">
-        <v>696096.9</v>
-      </c>
-      <c r="V24">
-        <v>1215945.3999999999</v>
-      </c>
-      <c r="W24">
-        <v>1177749.2</v>
-      </c>
-      <c r="X24">
-        <v>701034</v>
-      </c>
-      <c r="Y24">
-        <v>695938.8</v>
-      </c>
-      <c r="Z24">
-        <v>1212721.3999999999</v>
-      </c>
-      <c r="AA24">
-        <v>949927.2</v>
-      </c>
-      <c r="AB24">
-        <v>717907.6</v>
-      </c>
-      <c r="AC24">
-        <v>701371.2</v>
-      </c>
-      <c r="AD24">
-        <v>1214711.2</v>
-      </c>
-      <c r="AE24">
-        <v>1177205.3999999999</v>
-      </c>
-      <c r="AF24" s="3">
-        <v>1419278.79999999</v>
-      </c>
-      <c r="AG24" s="3">
-        <v>2391916.5999999898</v>
-      </c>
-      <c r="AH24" s="3">
-        <v>543505.19999999995</v>
-      </c>
-      <c r="AI24" s="3">
-        <v>23426.5</v>
-      </c>
-      <c r="AJ24" s="3">
-        <v>1396972.8</v>
-      </c>
-      <c r="AK24" s="3">
-        <v>2162648.5999999898</v>
-      </c>
-      <c r="AL24" s="3">
-        <v>4452165</v>
-      </c>
-      <c r="AM24" s="3">
-        <v>137066.79999999999</v>
-      </c>
-      <c r="AN24" s="3">
-        <v>84348.800000000003</v>
-      </c>
-      <c r="AO24" s="3">
-        <v>2763.9</v>
-      </c>
-      <c r="AP24" s="3">
-        <v>33</v>
-      </c>
-      <c r="AQ24" s="3">
-        <v>168128</v>
-      </c>
-      <c r="AR24" s="3">
-        <v>262133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>64</v>
-      </c>
-      <c r="B25">
-        <v>64</v>
-      </c>
-      <c r="C25">
-        <v>4096</v>
-      </c>
-      <c r="D25" s="2">
-        <v>8.2026599999999998</v>
-      </c>
-      <c r="E25" s="3">
-        <v>52280.94</v>
-      </c>
-      <c r="F25">
-        <v>75</v>
-      </c>
-      <c r="G25" s="2">
-        <v>50</v>
-      </c>
-      <c r="H25" s="2">
-        <v>49.786999999999999</v>
-      </c>
-      <c r="I25">
-        <v>12.442</v>
-      </c>
-      <c r="J25">
-        <v>3.79</v>
-      </c>
-      <c r="K25" s="2">
-        <v>7.8170000000000002</v>
-      </c>
-      <c r="L25" s="2">
-        <v>24.2149999999999</v>
-      </c>
-      <c r="M25" s="2">
-        <v>51.708999999999897</v>
-      </c>
-      <c r="N25" s="1">
-        <v>1.5590215999999999</v>
-      </c>
-      <c r="O25" s="2">
-        <v>99.548000000000002</v>
-      </c>
-      <c r="P25">
-        <v>189124</v>
-      </c>
-      <c r="Q25">
-        <v>172467.3</v>
-      </c>
-      <c r="R25">
-        <v>12154.6</v>
-      </c>
-      <c r="S25">
-        <v>3529.2</v>
-      </c>
-      <c r="T25">
-        <v>473933.4</v>
-      </c>
-      <c r="U25">
-        <v>468864.4</v>
-      </c>
-      <c r="V25">
-        <v>819531</v>
-      </c>
-      <c r="W25">
-        <v>794915.6</v>
-      </c>
-      <c r="X25">
-        <v>468704.8</v>
-      </c>
-      <c r="Y25">
-        <v>465204.4</v>
-      </c>
-      <c r="Z25">
-        <v>818765.4</v>
-      </c>
-      <c r="AA25">
-        <v>181512.8</v>
-      </c>
-      <c r="AB25">
-        <v>481005.4</v>
-      </c>
-      <c r="AC25">
-        <v>469784.3</v>
-      </c>
-      <c r="AD25">
-        <v>821371.6</v>
-      </c>
-      <c r="AE25">
-        <v>796088.2</v>
-      </c>
-      <c r="AF25" s="3">
-        <v>950789.7</v>
-      </c>
-      <c r="AG25" s="3">
-        <v>1617459.79999999</v>
-      </c>
-      <c r="AH25" s="3">
-        <v>361591.3</v>
-      </c>
-      <c r="AI25" s="3">
-        <v>15683.8</v>
-      </c>
-      <c r="AJ25" s="3">
-        <v>933909.2</v>
-      </c>
-      <c r="AK25" s="3">
-        <v>1000278.2</v>
-      </c>
-      <c r="AL25" s="3">
-        <v>3016169</v>
-      </c>
-      <c r="AM25" s="3">
-        <v>91514.8</v>
-      </c>
-      <c r="AN25" s="3">
-        <v>56316.800000000003</v>
-      </c>
-      <c r="AO25" s="3">
-        <v>1887.9</v>
-      </c>
-      <c r="AP25" s="3">
-        <v>33</v>
-      </c>
-      <c r="AQ25" s="3">
-        <v>113222.39999999999</v>
-      </c>
-      <c r="AR25" s="3">
-        <v>178058.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>32</v>
-      </c>
-      <c r="B26">
-        <v>256</v>
-      </c>
-      <c r="C26">
-        <v>8192</v>
-      </c>
-      <c r="D26" s="2">
-        <v>13.544059999999901</v>
-      </c>
-      <c r="E26" s="3">
-        <v>15103.309999999899</v>
-      </c>
-      <c r="F26">
-        <v>75</v>
-      </c>
-      <c r="G26" s="2">
-        <v>50.000999999999998</v>
-      </c>
-      <c r="H26" s="2">
-        <v>49.628</v>
-      </c>
-      <c r="I26">
-        <v>12.404</v>
-      </c>
-      <c r="J26">
-        <v>3.79</v>
-      </c>
-      <c r="K26" s="2">
-        <v>6.8679999999999897</v>
-      </c>
-      <c r="L26" s="2">
-        <v>26.074999999999999</v>
-      </c>
-      <c r="M26" s="2">
-        <v>46.008000000000003</v>
-      </c>
-      <c r="N26" s="1">
-        <v>1.4099120999999999</v>
-      </c>
-      <c r="O26" s="2">
-        <v>99.653999999999996</v>
-      </c>
-      <c r="P26">
-        <v>260098.5</v>
-      </c>
-      <c r="Q26">
-        <v>238817.7</v>
-      </c>
-      <c r="R26">
-        <v>16895.5</v>
-      </c>
-      <c r="S26">
-        <v>4744.3999999999996</v>
-      </c>
-      <c r="T26">
-        <v>647065.19999999995</v>
-      </c>
-      <c r="U26">
-        <v>640018.69999999995</v>
-      </c>
-      <c r="V26">
-        <v>1129577.8</v>
-      </c>
-      <c r="W26">
-        <v>1095209.6000000001</v>
-      </c>
-      <c r="X26">
-        <v>641767.4</v>
-      </c>
-      <c r="Y26">
-        <v>637077.80000000005</v>
-      </c>
-      <c r="Z26">
-        <v>1121733</v>
-      </c>
-      <c r="AA26">
-        <v>1992412</v>
-      </c>
-      <c r="AB26">
-        <v>657282.4</v>
-      </c>
-      <c r="AC26">
-        <v>641532.6</v>
-      </c>
-      <c r="AD26">
-        <v>1122731.6000000001</v>
-      </c>
-      <c r="AE26">
-        <v>1088164.2</v>
-      </c>
-      <c r="AF26" s="3">
-        <v>1298815</v>
-      </c>
-      <c r="AG26" s="3">
-        <v>2210895.7999999998</v>
-      </c>
-      <c r="AH26" s="3">
-        <v>498916.2</v>
-      </c>
-      <c r="AI26" s="3">
-        <v>21639.9</v>
-      </c>
-      <c r="AJ26" s="3">
-        <v>1278845.2</v>
-      </c>
-      <c r="AK26" s="3">
-        <v>3114145</v>
-      </c>
-      <c r="AL26" s="3">
-        <v>4167621.6</v>
-      </c>
-      <c r="AM26" s="3">
-        <v>125392.8</v>
-      </c>
-      <c r="AN26" s="3">
-        <v>77164.800000000003</v>
-      </c>
-      <c r="AO26" s="3">
-        <v>2667.4</v>
-      </c>
-      <c r="AP26" s="3">
-        <v>33</v>
-      </c>
-      <c r="AQ26" s="3">
-        <v>154547.20000000001</v>
-      </c>
-      <c r="AR26" s="3">
-        <v>246073.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>64</v>
-      </c>
-      <c r="B27">
-        <v>128</v>
-      </c>
-      <c r="C27">
-        <v>8192</v>
-      </c>
-      <c r="D27" s="2">
-        <v>12.338469999999999</v>
-      </c>
-      <c r="E27" s="3">
-        <v>18581.41</v>
-      </c>
-      <c r="F27">
-        <v>75</v>
-      </c>
-      <c r="G27" s="2">
-        <v>50</v>
-      </c>
-      <c r="H27" s="2">
-        <v>50.198</v>
-      </c>
-      <c r="I27">
-        <v>12.467000000000001</v>
-      </c>
-      <c r="J27">
-        <v>3.79</v>
-      </c>
-      <c r="K27" s="2">
-        <v>7.6649999999999903</v>
-      </c>
-      <c r="L27" s="2">
-        <v>24.972999999999999</v>
-      </c>
-      <c r="M27" s="2">
-        <v>50.445999999999998</v>
-      </c>
-      <c r="N27" s="1">
-        <v>1.5718141999999999</v>
-      </c>
-      <c r="O27" s="2">
-        <v>99.825999999999993</v>
-      </c>
-      <c r="P27">
-        <v>257409.4</v>
-      </c>
-      <c r="Q27">
-        <v>236656.1</v>
-      </c>
-      <c r="R27">
-        <v>15715.5</v>
-      </c>
-      <c r="S27">
-        <v>4731.6000000000004</v>
-      </c>
-      <c r="T27">
-        <v>642491.19999999995</v>
-      </c>
-      <c r="U27">
-        <v>635585</v>
-      </c>
-      <c r="V27">
-        <v>1115635.8</v>
-      </c>
-      <c r="W27">
-        <v>1081850.8</v>
-      </c>
-      <c r="X27">
-        <v>635588</v>
-      </c>
-      <c r="Y27">
-        <v>631011.19999999995</v>
-      </c>
-      <c r="Z27">
-        <v>1119961.8</v>
-      </c>
-      <c r="AA27">
-        <v>535298</v>
-      </c>
-      <c r="AB27">
-        <v>646276.6</v>
-      </c>
-      <c r="AC27">
-        <v>631681.1</v>
-      </c>
-      <c r="AD27">
-        <v>1118107.2</v>
-      </c>
-      <c r="AE27">
-        <v>1083025.3999999999</v>
-      </c>
-      <c r="AF27" s="3">
-        <v>1277957.7</v>
-      </c>
-      <c r="AG27" s="3">
-        <v>2201132.5999999898</v>
-      </c>
-      <c r="AH27" s="3">
-        <v>494065.5</v>
-      </c>
-      <c r="AI27" s="3">
-        <v>20447.099999999999</v>
-      </c>
-      <c r="AJ27" s="3">
-        <v>1266599.2</v>
-      </c>
-      <c r="AK27" s="3">
-        <v>1655259.8</v>
-      </c>
-      <c r="AL27" s="3">
-        <v>4179683.4</v>
-      </c>
-      <c r="AM27" s="3">
-        <v>124321.60000000001</v>
-      </c>
-      <c r="AN27" s="3">
-        <v>76505.600000000006</v>
-      </c>
-      <c r="AO27" s="3">
-        <v>2646.8</v>
-      </c>
-      <c r="AP27" s="3">
-        <v>33</v>
-      </c>
-      <c r="AQ27" s="3">
-        <v>153465.60000000001</v>
-      </c>
-      <c r="AR27" s="3">
-        <v>244417.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>64</v>
-      </c>
-      <c r="B28">
-        <v>256</v>
-      </c>
-      <c r="C28">
-        <v>16384</v>
-      </c>
-      <c r="D28" s="2">
-        <v>9.1497200000000003</v>
-      </c>
-      <c r="E28" s="3">
-        <v>10257.8397656</v>
-      </c>
-      <c r="F28">
-        <v>75</v>
-      </c>
-      <c r="G28" s="2">
-        <v>50.001999999999903</v>
-      </c>
-      <c r="H28" s="2">
-        <v>50.507999999999903</v>
-      </c>
-      <c r="I28">
-        <v>12.420999999999999</v>
-      </c>
-      <c r="J28">
-        <v>3.79</v>
-      </c>
-      <c r="K28" s="2">
-        <v>6.8719999999999999</v>
-      </c>
-      <c r="L28" s="2">
-        <v>26.064</v>
-      </c>
-      <c r="M28" s="2">
-        <v>46.875999999999998</v>
-      </c>
-      <c r="N28" s="1">
-        <v>1.3933465</v>
-      </c>
-      <c r="O28" s="2">
-        <v>99.758999999999901</v>
-      </c>
-      <c r="P28">
-        <v>209812.6</v>
-      </c>
-      <c r="Q28">
-        <v>192187</v>
-      </c>
-      <c r="R28">
-        <v>13152.7</v>
-      </c>
-      <c r="S28">
-        <v>4236.1000000000004</v>
-      </c>
-      <c r="T28">
-        <v>520607</v>
-      </c>
-      <c r="U28">
-        <v>514997</v>
-      </c>
-      <c r="V28">
-        <v>927100.2</v>
-      </c>
-      <c r="W28">
-        <v>899666.4</v>
-      </c>
-      <c r="X28">
-        <v>515802.8</v>
-      </c>
-      <c r="Y28">
-        <v>511904.8</v>
-      </c>
-      <c r="Z28">
-        <v>930745.4</v>
-      </c>
-      <c r="AA28">
-        <v>25807.200000000001</v>
-      </c>
-      <c r="AB28">
-        <v>530245.6</v>
-      </c>
-      <c r="AC28">
-        <v>518058</v>
-      </c>
-      <c r="AD28">
-        <v>932761.2</v>
-      </c>
-      <c r="AE28">
-        <v>904521.8</v>
-      </c>
-      <c r="AF28" s="3">
-        <v>1048303.6</v>
-      </c>
-      <c r="AG28" s="3">
-        <v>1837283</v>
-      </c>
-      <c r="AH28" s="3">
-        <v>401999.6</v>
-      </c>
-      <c r="AI28" s="3">
-        <v>17388.8</v>
-      </c>
-      <c r="AJ28" s="3">
-        <v>1027707.6</v>
-      </c>
-      <c r="AK28" s="3">
-        <v>956552.6</v>
-      </c>
-      <c r="AL28" s="3">
-        <v>3548211.2000000002</v>
-      </c>
-      <c r="AM28" s="3">
-        <v>101290.8</v>
-      </c>
-      <c r="AN28" s="3">
-        <v>62332.800000000003</v>
-      </c>
-      <c r="AO28" s="3">
-        <v>2459.9</v>
-      </c>
-      <c r="AP28" s="3">
-        <v>33</v>
-      </c>
-      <c r="AQ28" s="3">
-        <v>124320</v>
-      </c>
-      <c r="AR28" s="3">
         <v>209260</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AR51">
-    <sortCondition ref="C2:C51"/>
+  <sortState ref="A2:AR45">
+    <sortCondition ref="C2:C45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AR73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
